--- a/WYCENY.xlsx
+++ b/WYCENY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48534\Desktop\aluko-app2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDADFB8-F12B-40C3-A379-6F62485F4C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B47BC6-449A-4A33-B380-EC2344DC3466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15720" tabRatio="739" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="34">
   <si>
     <t>HS 2 Skrzydla</t>
   </si>
@@ -111,6 +111,30 @@
   </si>
   <si>
     <t>HS</t>
+  </si>
+  <si>
+    <t>HS kontaktron 1 naskrzydło czyli 2x 312 zł</t>
+  </si>
+  <si>
+    <t>HS okucie Silent Close 1 naskrzydło czyli 2 x 1298 zł</t>
+  </si>
+  <si>
+    <t>HS Klamka dwustronna z wkładką obustronną na skrzydło czyli 2x519 zł</t>
+  </si>
+  <si>
+    <t>HS Wkładka jednostronna na 1 skrzydło czyli 2x157 zł</t>
+  </si>
+  <si>
+    <t>Kontaktron MC250 1 naskrzydło czyli 2x 121 zł</t>
+  </si>
+  <si>
+    <t>Systemowy kontaktron z kontrolą ryglowania 1 naskrzydło czyli 2x 573 zł</t>
+  </si>
+  <si>
+    <t>Mikrowentylacja ROTO 1 naskrzydło czyli 2x 194 zł</t>
+  </si>
+  <si>
+    <t>Zatzask balkonowy z pochwytem 1 naskrzydło czyli 2x 119 zł</t>
   </si>
 </sst>
 </file>
@@ -987,7 +1011,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>45342</xdr:colOff>
+      <xdr:colOff>48517</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>38992</xdr:rowOff>
     </xdr:to>
@@ -1535,8 +1559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2292162-4499-4263-B7E0-1999D5CFEB55}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20:M24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1930,7 +1954,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="20" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="14" t="s">
         <v>8</v>
       </c>
@@ -1938,7 +1962,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="14" t="s">
         <v>9</v>
       </c>
@@ -1946,7 +1970,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="20" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>10</v>
       </c>
@@ -1969,14 +1993,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20:M24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28.1796875" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="10" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.54296875" bestFit="1" customWidth="1"/>
@@ -2357,36 +2381,36 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" ht="20" x14ac:dyDescent="0.35">
       <c r="A31" s="14" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B31" s="15">
-        <v>312</v>
+        <v>624</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="20" x14ac:dyDescent="0.35">
       <c r="A32" s="14" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B32" s="15">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="40" x14ac:dyDescent="0.35">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.35">
       <c r="A33" s="14" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B33" s="15">
-        <v>519</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="20" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B34" s="15">
-        <v>157</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -2405,7 +2429,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="T33" sqref="T33"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3439,7 +3463,7 @@
       <c r="P30" s="25"/>
       <c r="Q30" s="15"/>
     </row>
-    <row r="31" spans="1:17" ht="20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="25" t="s">
         <v>12</v>
       </c>
@@ -3449,7 +3473,7 @@
       <c r="P31" s="25"/>
       <c r="Q31" s="15"/>
     </row>
-    <row r="32" spans="1:17" ht="40" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" ht="20" x14ac:dyDescent="0.35">
       <c r="A32" s="25" t="s">
         <v>13</v>
       </c>
@@ -3459,7 +3483,7 @@
       <c r="P32" s="25"/>
       <c r="Q32" s="15"/>
     </row>
-    <row r="33" spans="1:2" ht="20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="25" t="s">
         <v>14</v>
       </c>
@@ -3467,7 +3491,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="25" t="s">
         <v>15</v>
       </c>
@@ -3490,8 +3514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3132394-8E5A-4DE4-B592-9A731C6D40F1}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4418,7 +4442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="25" t="s">
         <v>12</v>
       </c>
@@ -4426,7 +4450,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="40" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" ht="20" x14ac:dyDescent="0.35">
       <c r="A32" s="25" t="s">
         <v>13</v>
       </c>
@@ -4434,7 +4458,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="25" t="s">
         <v>14</v>
       </c>
@@ -4442,13 +4466,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.35">
-      <c r="A34" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="15">
-        <v>119</v>
-      </c>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="25"/>
+      <c r="B34" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4466,13 +4486,13 @@
   <dimension ref="A1:Y34"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40.54296875" customWidth="1"/>
-    <col min="2" max="2" width="10.54296875" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="20" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="12.26953125" bestFit="1" customWidth="1"/>
@@ -6109,40 +6129,40 @@
       <c r="X30" s="25"/>
       <c r="Y30" s="15"/>
     </row>
-    <row r="31" spans="1:25" ht="20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="25" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B31" s="15">
-        <v>121</v>
+        <v>242</v>
       </c>
       <c r="X31" s="25"/>
       <c r="Y31" s="15"/>
     </row>
-    <row r="32" spans="1:25" ht="40" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" ht="20" x14ac:dyDescent="0.35">
       <c r="A32" s="25" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B32" s="15">
-        <v>573</v>
+        <v>1146</v>
       </c>
       <c r="X32" s="25"/>
       <c r="Y32" s="15"/>
     </row>
-    <row r="33" spans="1:2" ht="20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="25" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B33" s="15">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.35">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="20" x14ac:dyDescent="0.35">
       <c r="A34" s="25" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B34" s="15">
-        <v>119</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -6161,7 +6181,7 @@
   <dimension ref="A1:Y34"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="T33" sqref="T33"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7615,41 +7635,37 @@
       <c r="X30" s="25"/>
       <c r="Y30" s="15"/>
     </row>
-    <row r="31" spans="1:25" ht="20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="25" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B31" s="15">
-        <v>121</v>
+        <v>242</v>
       </c>
       <c r="X31" s="25"/>
       <c r="Y31" s="15"/>
     </row>
-    <row r="32" spans="1:25" ht="40" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" ht="20" x14ac:dyDescent="0.35">
       <c r="A32" s="25" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B32" s="15">
-        <v>573</v>
+        <v>1146</v>
       </c>
       <c r="X32" s="25"/>
       <c r="Y32" s="15"/>
     </row>
-    <row r="33" spans="1:2" ht="20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="25" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B33" s="15">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.35">
-      <c r="A34" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="15">
-        <v>119</v>
-      </c>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="25"/>
+      <c r="B34" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7666,8 +7682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5378C79B-0E42-44A4-AB1B-56918D9B4ECC}">
   <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9117,17 +9133,17 @@
       <c r="X30" s="25"/>
       <c r="Y30" s="15"/>
     </row>
-    <row r="31" spans="1:25" ht="20" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="25" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B31" s="15">
-        <v>121</v>
+        <v>242</v>
       </c>
       <c r="X31" s="25"/>
       <c r="Y31" s="15"/>
     </row>
-    <row r="32" spans="1:25" ht="40" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" s="25" t="s">
         <v>13</v>
       </c>
@@ -9137,7 +9153,7 @@
       <c r="X32" s="25"/>
       <c r="Y32" s="15"/>
     </row>
-    <row r="33" spans="1:2" ht="20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="25" t="s">
         <v>14</v>
       </c>
@@ -9145,13 +9161,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.35">
-      <c r="A34" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="15">
-        <v>119</v>
-      </c>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="25"/>
+      <c r="B34" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9168,8 +9180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F75182-FF93-4610-9DD1-45EF747A5A10}">
   <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10823,10 +10835,10 @@
     </row>
     <row r="31" spans="1:25" ht="20" x14ac:dyDescent="0.35">
       <c r="A31" s="25" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B31" s="15">
-        <v>121</v>
+        <v>242</v>
       </c>
       <c r="X31" s="25" t="s">
         <v>14</v>
@@ -10835,7 +10847,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="40" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" ht="20" x14ac:dyDescent="0.35">
       <c r="A32" s="25" t="s">
         <v>13</v>
       </c>
@@ -10849,7 +10861,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="20" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="25" t="s">
         <v>14</v>
       </c>
@@ -10857,7 +10869,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="25" t="s">
         <v>16</v>
       </c>
@@ -10880,7 +10892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D253740-FE97-4FFB-B698-DA3D3419EA93}">
   <dimension ref="A1:AD29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>

--- a/WYCENY.xlsx
+++ b/WYCENY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\48534\Desktop\aluko-app2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B47BC6-449A-4A33-B380-EC2344DC3466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1307C5D7-FFC1-46F7-898D-08661BF1D753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15720" tabRatio="739" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-30" windowWidth="29040" windowHeight="15720" tabRatio="739" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HS" sheetId="9" r:id="rId1"/>
@@ -18,10 +18,11 @@
     <sheet name="Okno 1 polowe" sheetId="2" r:id="rId3"/>
     <sheet name="Okno 1 polowe ukryte" sheetId="3" r:id="rId4"/>
     <sheet name="Okno 2 polowe 2RU" sheetId="4" r:id="rId5"/>
-    <sheet name="Okno 2 polowe ukryte 2RU" sheetId="5" r:id="rId6"/>
-    <sheet name="Okno 2 polowe ukryte z fix" sheetId="6" r:id="rId7"/>
-    <sheet name="Okno 2 polowe z fix" sheetId="7" r:id="rId8"/>
+    <sheet name="Okno 2 polowe z fix" sheetId="7" r:id="rId6"/>
+    <sheet name="Okno 2 polowe ukryte 2RU" sheetId="5" r:id="rId7"/>
+    <sheet name="Okno 2 polowe ukryte z fix" sheetId="6" r:id="rId8"/>
     <sheet name="Pola stałe" sheetId="8" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="38">
   <si>
     <t>HS 2 Skrzydla</t>
   </si>
@@ -45,9 +46,6 @@
   </si>
   <si>
     <t>Wysokość (mm)</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>Dodatki</t>
@@ -134,7 +132,22 @@
     <t>Mikrowentylacja ROTO 1 naskrzydło czyli 2x 194 zł</t>
   </si>
   <si>
-    <t>Zatzask balkonowy z pochwytem 1 naskrzydło czyli 2x 119 zł</t>
+    <t>Grześ powiedział że proporcje są chujowe</t>
+  </si>
+  <si>
+    <t>Grześ powiedział że proporcje są do dupy</t>
+  </si>
+  <si>
+    <t>Grześ powiedział że ugryź się w nos</t>
+  </si>
+  <si>
+    <t>Grześ powiedział pomidor</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Zatrzask balkonowy z pochwytem 1 naskrzydło czyli 2x 119 zł</t>
   </si>
 </sst>
 </file>
@@ -570,7 +583,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -747,6 +760,9 @@
     </xf>
     <xf numFmtId="44" fontId="6" fillId="2" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1103,6 +1119,55 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>23</xdr:col>
+      <xdr:colOff>22442</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>18930</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obraz 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC6743A0-8785-4123-9481-CF270119EBF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17208717" y="765174"/>
+          <a:ext cx="3784263" cy="3987800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>51014</xdr:rowOff>
@@ -1147,7 +1212,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1185,55 +1250,6 @@
         <a:xfrm>
           <a:off x="16817975" y="698390"/>
           <a:ext cx="4490289" cy="4147493"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>22442</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>18930</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Obraz 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC6743A0-8785-4123-9481-CF270119EBF8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="17208717" y="765174"/>
-          <a:ext cx="3784263" cy="3987800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1560,7 +1576,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1575,25 +1591,25 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="65" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="68"/>
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="2">
         <v>2000</v>
       </c>
@@ -1620,7 +1636,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="69" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="6">
@@ -1649,7 +1665,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B5" s="69"/>
+      <c r="B5" s="70"/>
       <c r="C5" s="9">
         <v>2139</v>
       </c>
@@ -1676,7 +1692,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="69"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="9">
         <v>2239</v>
       </c>
@@ -1703,7 +1719,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="69"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="9">
         <v>2339</v>
       </c>
@@ -1730,7 +1746,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="69"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="9">
         <v>2439</v>
       </c>
@@ -1757,7 +1773,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B9" s="69"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="9">
         <v>2539</v>
       </c>
@@ -1784,7 +1800,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B10" s="69"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="9">
         <v>2639</v>
       </c>
@@ -1811,12 +1827,12 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B11" s="69"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="9">
         <v>2739</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>4</v>
+      <c r="D11" s="61" t="s">
+        <v>36</v>
       </c>
       <c r="E11" s="12">
         <v>12376</v>
@@ -1838,15 +1854,15 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B12" s="69"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="9">
         <v>2839</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>4</v>
+      <c r="D12" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="61" t="s">
+        <v>36</v>
       </c>
       <c r="F12" s="12">
         <v>12886</v>
@@ -1865,15 +1881,15 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B13" s="69"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="9">
         <v>2939</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>4</v>
+      <c r="D13" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="61" t="s">
+        <v>36</v>
       </c>
       <c r="F13" s="12">
         <v>13246</v>
@@ -1892,15 +1908,15 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="70"/>
+      <c r="B14" s="71"/>
       <c r="C14" s="4">
         <v>3039</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>4</v>
+      <c r="D14" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="61" t="s">
+        <v>36</v>
       </c>
       <c r="F14" s="12">
         <v>13435</v>
@@ -1940,15 +1956,18 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>6</v>
+      <c r="E30" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31" s="15">
         <v>312</v>
@@ -1956,7 +1975,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" s="15">
         <v>1298</v>
@@ -1964,7 +1983,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33" s="15">
         <v>519</v>
@@ -1972,7 +1991,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B34" s="15">
         <v>157</v>
@@ -1989,12 +2008,24 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1A29A9-0F92-49F7-B455-B374883A62B7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2014,21 +2045,21 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="61"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="65" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="68"/>
     </row>
     <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="63"/>
-      <c r="C3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="2">
         <v>2000</v>
       </c>
@@ -2055,7 +2086,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="69" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="6">
@@ -2084,7 +2115,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B5" s="69"/>
+      <c r="B5" s="70"/>
       <c r="C5" s="9">
         <v>2139</v>
       </c>
@@ -2111,7 +2142,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="69"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="9">
         <v>2239</v>
       </c>
@@ -2138,7 +2169,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="69"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="9">
         <v>2339</v>
       </c>
@@ -2165,7 +2196,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="69"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="9">
         <v>2439</v>
       </c>
@@ -2192,7 +2223,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B9" s="69"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="9">
         <v>2539</v>
       </c>
@@ -2219,12 +2250,12 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B10" s="69"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="9">
         <v>2639</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>4</v>
+      <c r="D10" s="61" t="s">
+        <v>36</v>
       </c>
       <c r="E10" s="11">
         <v>16394</v>
@@ -2246,12 +2277,12 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B11" s="69"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="9">
         <v>2739</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>4</v>
+      <c r="D11" s="61" t="s">
+        <v>36</v>
       </c>
       <c r="E11" s="11">
         <v>16568</v>
@@ -2273,15 +2304,15 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B12" s="69"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="9">
         <v>2839</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>4</v>
+      <c r="D12" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="61" t="s">
+        <v>36</v>
       </c>
       <c r="F12" s="12">
         <v>17557</v>
@@ -2300,15 +2331,15 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B13" s="69"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="9">
         <v>2939</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>4</v>
+      <c r="D13" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="61" t="s">
+        <v>36</v>
       </c>
       <c r="F13" s="12">
         <v>18099</v>
@@ -2327,15 +2358,15 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="70"/>
+      <c r="B14" s="71"/>
       <c r="C14" s="4">
         <v>3039</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>4</v>
+      <c r="D14" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="61" t="s">
+        <v>36</v>
       </c>
       <c r="F14" s="12">
         <v>18297</v>
@@ -2375,15 +2406,18 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>6</v>
+      <c r="E30" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="20" x14ac:dyDescent="0.35">
       <c r="A31" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="15">
         <v>624</v>
@@ -2391,7 +2425,7 @@
     </row>
     <row r="32" spans="1:13" ht="20" x14ac:dyDescent="0.35">
       <c r="A32" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" s="15">
         <v>2596</v>
@@ -2399,7 +2433,7 @@
     </row>
     <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.35">
       <c r="A33" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="15">
         <v>1038</v>
@@ -2407,7 +2441,7 @@
     </row>
     <row r="34" spans="1:2" ht="20" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="15">
         <v>314</v>
@@ -2428,8 +2462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32D5C30-8D69-457B-8F98-2EE72BEDF60E}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2444,29 +2478,29 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="71"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="74" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="77"/>
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="73"/>
-      <c r="C3" s="61"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="2">
         <v>600</v>
       </c>
@@ -2505,7 +2539,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="78" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="6">
@@ -2545,11 +2579,11 @@
         <v>2556</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B5" s="78"/>
+      <c r="B5" s="79"/>
       <c r="C5" s="9">
         <v>800</v>
       </c>
@@ -2588,7 +2622,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B6" s="78"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="9">
         <v>900</v>
       </c>
@@ -2627,7 +2661,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B7" s="78"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="9">
         <v>1000</v>
       </c>
@@ -2666,7 +2700,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B8" s="78"/>
+      <c r="B8" s="79"/>
       <c r="C8" s="9">
         <v>1100</v>
       </c>
@@ -2705,7 +2739,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B9" s="78"/>
+      <c r="B9" s="79"/>
       <c r="C9" s="9">
         <v>1200</v>
       </c>
@@ -2744,7 +2778,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B10" s="78"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="9">
         <v>1300</v>
       </c>
@@ -2783,7 +2817,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B11" s="78"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="9">
         <v>1400</v>
       </c>
@@ -2822,7 +2856,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B12" s="78"/>
+      <c r="B12" s="79"/>
       <c r="C12" s="9">
         <v>1500</v>
       </c>
@@ -2861,7 +2895,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B13" s="78"/>
+      <c r="B13" s="79"/>
       <c r="C13" s="9">
         <v>1600</v>
       </c>
@@ -2900,7 +2934,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B14" s="78"/>
+      <c r="B14" s="79"/>
       <c r="C14" s="9">
         <v>1700</v>
       </c>
@@ -2939,7 +2973,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B15" s="78"/>
+      <c r="B15" s="79"/>
       <c r="C15" s="9">
         <v>1800</v>
       </c>
@@ -2978,7 +3012,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B16" s="78"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="9">
         <v>1900</v>
       </c>
@@ -3017,7 +3051,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B17" s="78"/>
+      <c r="B17" s="79"/>
       <c r="C17" s="9">
         <v>2000</v>
       </c>
@@ -3056,7 +3090,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B18" s="78"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="9">
         <v>2100</v>
       </c>
@@ -3095,7 +3129,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B19" s="78"/>
+      <c r="B19" s="79"/>
       <c r="C19" s="9">
         <v>2200</v>
       </c>
@@ -3134,7 +3168,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B20" s="78"/>
+      <c r="B20" s="79"/>
       <c r="C20" s="9">
         <v>2300</v>
       </c>
@@ -3173,7 +3207,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B21" s="78"/>
+      <c r="B21" s="79"/>
       <c r="C21" s="9">
         <v>2400</v>
       </c>
@@ -3212,7 +3246,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B22" s="78"/>
+      <c r="B22" s="79"/>
       <c r="C22" s="9">
         <v>2500</v>
       </c>
@@ -3251,7 +3285,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B23" s="78"/>
+      <c r="B23" s="79"/>
       <c r="C23" s="9">
         <v>2600</v>
       </c>
@@ -3290,7 +3324,7 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B24" s="78"/>
+      <c r="B24" s="79"/>
       <c r="C24" s="9">
         <v>2700</v>
       </c>
@@ -3329,7 +3363,7 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B25" s="78"/>
+      <c r="B25" s="79"/>
       <c r="C25" s="9">
         <v>2800</v>
       </c>
@@ -3363,12 +3397,12 @@
       <c r="M25" s="12">
         <v>5112</v>
       </c>
-      <c r="N25" s="11" t="s">
-        <v>4</v>
+      <c r="N25" s="61" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B26" s="78"/>
+      <c r="B26" s="79"/>
       <c r="C26" s="9">
         <v>2900</v>
       </c>
@@ -3402,12 +3436,12 @@
       <c r="M26" s="12">
         <v>5205</v>
       </c>
-      <c r="N26" s="11" t="s">
-        <v>4</v>
+      <c r="N26" s="61" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="79"/>
+      <c r="B27" s="80"/>
       <c r="C27" s="4">
         <v>3000</v>
       </c>
@@ -3441,8 +3475,8 @@
       <c r="M27" s="12">
         <v>5298</v>
       </c>
-      <c r="N27" s="11" t="s">
-        <v>4</v>
+      <c r="N27" s="61" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
@@ -3455,17 +3489,20 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="13" t="s">
-        <v>6</v>
+      <c r="E30" t="s">
+        <v>34</v>
       </c>
       <c r="P30" s="25"/>
       <c r="Q30" s="15"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31" s="15">
         <v>121</v>
@@ -3475,7 +3512,7 @@
     </row>
     <row r="32" spans="1:17" ht="20" x14ac:dyDescent="0.35">
       <c r="A32" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32" s="15">
         <v>573</v>
@@ -3485,7 +3522,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33" s="15">
         <v>194</v>
@@ -3493,7 +3530,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" s="15">
         <v>119</v>
@@ -3514,8 +3551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3132394-8E5A-4DE4-B592-9A731C6D40F1}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3530,29 +3567,29 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="71"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="74" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="77"/>
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="73"/>
-      <c r="C3" s="61"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="2">
         <v>600</v>
       </c>
@@ -3591,7 +3628,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="69" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="6">
@@ -3631,11 +3668,11 @@
         <v>2726</v>
       </c>
       <c r="P4" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B5" s="69"/>
+      <c r="B5" s="70"/>
       <c r="C5" s="9">
         <v>800</v>
       </c>
@@ -3674,7 +3711,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B6" s="69"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="9">
         <v>900</v>
       </c>
@@ -3713,7 +3750,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B7" s="69"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="9">
         <v>1000</v>
       </c>
@@ -3752,7 +3789,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B8" s="69"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="9">
         <v>1100</v>
       </c>
@@ -3791,7 +3828,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B9" s="69"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="9">
         <v>1200</v>
       </c>
@@ -3830,7 +3867,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B10" s="69"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="9">
         <v>1300</v>
       </c>
@@ -3869,7 +3906,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B11" s="69"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="9">
         <v>1400</v>
       </c>
@@ -3908,7 +3945,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B12" s="69"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="9">
         <v>1500</v>
       </c>
@@ -3947,7 +3984,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B13" s="69"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="9">
         <v>1600</v>
       </c>
@@ -3986,7 +4023,7 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B14" s="69"/>
+      <c r="B14" s="70"/>
       <c r="C14" s="9">
         <v>1700</v>
       </c>
@@ -4025,7 +4062,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B15" s="69"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="9">
         <v>1800</v>
       </c>
@@ -4064,7 +4101,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="B16" s="69"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="9">
         <v>1900</v>
       </c>
@@ -4103,7 +4140,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B17" s="69"/>
+      <c r="B17" s="70"/>
       <c r="C17" s="9">
         <v>2000</v>
       </c>
@@ -4142,7 +4179,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B18" s="69"/>
+      <c r="B18" s="70"/>
       <c r="C18" s="9">
         <v>2100</v>
       </c>
@@ -4181,7 +4218,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B19" s="69"/>
+      <c r="B19" s="70"/>
       <c r="C19" s="9">
         <v>2200</v>
       </c>
@@ -4220,7 +4257,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B20" s="69"/>
+      <c r="B20" s="70"/>
       <c r="C20" s="9">
         <v>2300</v>
       </c>
@@ -4259,7 +4296,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B21" s="69"/>
+      <c r="B21" s="70"/>
       <c r="C21" s="9">
         <v>2400</v>
       </c>
@@ -4298,7 +4335,7 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B22" s="69"/>
+      <c r="B22" s="70"/>
       <c r="C22" s="9">
         <v>2500</v>
       </c>
@@ -4337,7 +4374,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B23" s="69"/>
+      <c r="B23" s="70"/>
       <c r="C23" s="9">
         <v>2600</v>
       </c>
@@ -4376,7 +4413,7 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="70"/>
+      <c r="B24" s="71"/>
       <c r="C24" s="4">
         <v>2700</v>
       </c>
@@ -4436,15 +4473,15 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>5</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31" s="15">
         <v>121</v>
@@ -4452,7 +4489,7 @@
     </row>
     <row r="32" spans="1:17" ht="20" x14ac:dyDescent="0.35">
       <c r="A32" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32" s="15">
         <v>573</v>
@@ -4460,7 +4497,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33" s="15">
         <v>194</v>
@@ -4485,8 +4522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89FB5BE-AE4B-4FE5-9A41-B73D34AD22FB}">
   <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4502,37 +4539,37 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="71"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="74" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="77"/>
     </row>
     <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="73"/>
-      <c r="C3" s="61"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="2">
         <v>1200</v>
       </c>
@@ -4595,7 +4632,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="69" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="6">
@@ -4659,11 +4696,11 @@
         <v>4957</v>
       </c>
       <c r="X4" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B5" s="69"/>
+      <c r="B5" s="70"/>
       <c r="C5" s="9">
         <v>800</v>
       </c>
@@ -4726,7 +4763,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B6" s="69"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="9">
         <v>900</v>
       </c>
@@ -4789,7 +4826,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B7" s="69"/>
+      <c r="B7" s="70"/>
       <c r="C7" s="9">
         <v>1000</v>
       </c>
@@ -4852,7 +4889,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B8" s="69"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="9">
         <v>1100</v>
       </c>
@@ -4915,7 +4952,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B9" s="69"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="9">
         <v>1200</v>
       </c>
@@ -4978,7 +5015,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B10" s="69"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="9">
         <v>1300</v>
       </c>
@@ -5041,7 +5078,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B11" s="69"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="9">
         <v>1400</v>
       </c>
@@ -5104,7 +5141,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B12" s="69"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="9">
         <v>1500</v>
       </c>
@@ -5167,7 +5204,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B13" s="69"/>
+      <c r="B13" s="70"/>
       <c r="C13" s="9">
         <v>1600</v>
       </c>
@@ -5230,7 +5267,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B14" s="69"/>
+      <c r="B14" s="70"/>
       <c r="C14" s="9">
         <v>1700</v>
       </c>
@@ -5293,7 +5330,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B15" s="69"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="9">
         <v>1800</v>
       </c>
@@ -5356,7 +5393,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B16" s="69"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="9">
         <v>1900</v>
       </c>
@@ -5419,7 +5456,7 @@
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B17" s="69"/>
+      <c r="B17" s="70"/>
       <c r="C17" s="9">
         <v>2000</v>
       </c>
@@ -5482,7 +5519,7 @@
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B18" s="69"/>
+      <c r="B18" s="70"/>
       <c r="C18" s="9">
         <v>2100</v>
       </c>
@@ -5545,7 +5582,7 @@
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B19" s="69"/>
+      <c r="B19" s="70"/>
       <c r="C19" s="9">
         <v>2200</v>
       </c>
@@ -5608,7 +5645,7 @@
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B20" s="69"/>
+      <c r="B20" s="70"/>
       <c r="C20" s="9">
         <v>2300</v>
       </c>
@@ -5671,7 +5708,7 @@
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B21" s="69"/>
+      <c r="B21" s="70"/>
       <c r="C21" s="9">
         <v>2400</v>
       </c>
@@ -5734,7 +5771,7 @@
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B22" s="69"/>
+      <c r="B22" s="70"/>
       <c r="C22" s="9">
         <v>2500</v>
       </c>
@@ -5797,7 +5834,7 @@
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B23" s="69"/>
+      <c r="B23" s="70"/>
       <c r="C23" s="9">
         <v>2600</v>
       </c>
@@ -5860,7 +5897,7 @@
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B24" s="69"/>
+      <c r="B24" s="70"/>
       <c r="C24" s="9">
         <v>2700</v>
       </c>
@@ -5923,7 +5960,7 @@
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B25" s="69"/>
+      <c r="B25" s="70"/>
       <c r="C25" s="9">
         <v>2800</v>
       </c>
@@ -5986,7 +6023,7 @@
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B26" s="69"/>
+      <c r="B26" s="70"/>
       <c r="C26" s="9">
         <v>2900</v>
       </c>
@@ -6049,7 +6086,7 @@
       </c>
     </row>
     <row r="27" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="70"/>
+      <c r="B27" s="71"/>
       <c r="C27" s="4">
         <v>3000</v>
       </c>
@@ -6121,17 +6158,17 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>5</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>6</v>
       </c>
       <c r="X30" s="25"/>
       <c r="Y30" s="15"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="15">
         <v>242</v>
@@ -6141,7 +6178,7 @@
     </row>
     <row r="32" spans="1:25" ht="20" x14ac:dyDescent="0.35">
       <c r="A32" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="15">
         <v>1146</v>
@@ -6151,7 +6188,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="15">
         <v>388</v>
@@ -6159,7 +6196,7 @@
     </row>
     <row r="34" spans="1:2" ht="20" x14ac:dyDescent="0.35">
       <c r="A34" s="25" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B34" s="15">
         <v>238</v>
@@ -6177,10 +6214,1722 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F75182-FF93-4610-9DD1-45EF747A5A10}">
+  <dimension ref="A1:Y34"/>
+  <sheetViews>
+    <sheetView topLeftCell="K10" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="42.1796875" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="17" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="77"/>
+    </row>
+    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="74"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="2">
+        <v>1200</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L3" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M3" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N3" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O3" s="3">
+        <v>2300</v>
+      </c>
+      <c r="P3" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R3" s="3">
+        <v>2600</v>
+      </c>
+      <c r="S3" s="3">
+        <v>2700</v>
+      </c>
+      <c r="T3" s="3">
+        <v>2800</v>
+      </c>
+      <c r="U3" s="3">
+        <v>2900</v>
+      </c>
+      <c r="V3" s="4">
+        <v>3000</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B4" s="78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>700</v>
+      </c>
+      <c r="D4" s="16">
+        <v>2293</v>
+      </c>
+      <c r="E4" s="17">
+        <v>2342</v>
+      </c>
+      <c r="F4" s="17">
+        <v>2391</v>
+      </c>
+      <c r="G4" s="17">
+        <v>2440</v>
+      </c>
+      <c r="H4" s="17">
+        <v>2467</v>
+      </c>
+      <c r="I4" s="17">
+        <v>2516</v>
+      </c>
+      <c r="J4" s="17">
+        <v>2565</v>
+      </c>
+      <c r="K4" s="17">
+        <v>2614</v>
+      </c>
+      <c r="L4" s="17">
+        <v>2663</v>
+      </c>
+      <c r="M4" s="17">
+        <v>2706</v>
+      </c>
+      <c r="N4" s="17">
+        <v>2745</v>
+      </c>
+      <c r="O4" s="17">
+        <v>2783</v>
+      </c>
+      <c r="P4" s="17">
+        <v>2822</v>
+      </c>
+      <c r="Q4" s="17">
+        <v>2860</v>
+      </c>
+      <c r="R4" s="17">
+        <v>2903</v>
+      </c>
+      <c r="S4" s="17">
+        <v>2942</v>
+      </c>
+      <c r="T4" s="17">
+        <v>2981</v>
+      </c>
+      <c r="U4" s="17">
+        <v>3019</v>
+      </c>
+      <c r="V4" s="17">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B5" s="79"/>
+      <c r="C5" s="9">
+        <v>800</v>
+      </c>
+      <c r="D5" s="20">
+        <v>2380</v>
+      </c>
+      <c r="E5" s="21">
+        <v>2432</v>
+      </c>
+      <c r="F5" s="21">
+        <v>2484</v>
+      </c>
+      <c r="G5" s="21">
+        <v>2536</v>
+      </c>
+      <c r="H5" s="21">
+        <v>2565</v>
+      </c>
+      <c r="I5" s="21">
+        <v>2617</v>
+      </c>
+      <c r="J5" s="21">
+        <v>2669</v>
+      </c>
+      <c r="K5" s="21">
+        <v>2721</v>
+      </c>
+      <c r="L5" s="21">
+        <v>2773</v>
+      </c>
+      <c r="M5" s="21">
+        <v>2819</v>
+      </c>
+      <c r="N5" s="21">
+        <v>2861</v>
+      </c>
+      <c r="O5" s="21">
+        <v>2902</v>
+      </c>
+      <c r="P5" s="21">
+        <v>2944</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>2985</v>
+      </c>
+      <c r="R5" s="21">
+        <v>3031</v>
+      </c>
+      <c r="S5" s="21">
+        <v>3073</v>
+      </c>
+      <c r="T5" s="21">
+        <v>3114</v>
+      </c>
+      <c r="U5" s="21">
+        <v>3156</v>
+      </c>
+      <c r="V5" s="21">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B6" s="79"/>
+      <c r="C6" s="9">
+        <v>900</v>
+      </c>
+      <c r="D6" s="20">
+        <v>2460</v>
+      </c>
+      <c r="E6" s="21">
+        <v>2515</v>
+      </c>
+      <c r="F6" s="21">
+        <v>2570</v>
+      </c>
+      <c r="G6" s="21">
+        <v>2625</v>
+      </c>
+      <c r="H6" s="21">
+        <v>2657</v>
+      </c>
+      <c r="I6" s="21">
+        <v>2712</v>
+      </c>
+      <c r="J6" s="21">
+        <v>2767</v>
+      </c>
+      <c r="K6" s="21">
+        <v>2822</v>
+      </c>
+      <c r="L6" s="21">
+        <v>2877</v>
+      </c>
+      <c r="M6" s="21">
+        <v>2926</v>
+      </c>
+      <c r="N6" s="21">
+        <v>2970</v>
+      </c>
+      <c r="O6" s="21">
+        <v>3015</v>
+      </c>
+      <c r="P6" s="21">
+        <v>3059</v>
+      </c>
+      <c r="Q6" s="21">
+        <v>3104</v>
+      </c>
+      <c r="R6" s="21">
+        <v>3153</v>
+      </c>
+      <c r="S6" s="21">
+        <v>3197</v>
+      </c>
+      <c r="T6" s="21">
+        <v>3242</v>
+      </c>
+      <c r="U6" s="21">
+        <v>3286</v>
+      </c>
+      <c r="V6" s="21">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B7" s="79"/>
+      <c r="C7" s="9">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="20">
+        <v>2547</v>
+      </c>
+      <c r="E7" s="21">
+        <v>2604</v>
+      </c>
+      <c r="F7" s="21">
+        <v>2662</v>
+      </c>
+      <c r="G7" s="21">
+        <v>2720</v>
+      </c>
+      <c r="H7" s="21">
+        <v>2755</v>
+      </c>
+      <c r="I7" s="21">
+        <v>2813</v>
+      </c>
+      <c r="J7" s="21">
+        <v>2871</v>
+      </c>
+      <c r="K7" s="21">
+        <v>2929</v>
+      </c>
+      <c r="L7" s="21">
+        <v>2987</v>
+      </c>
+      <c r="M7" s="21">
+        <v>3039</v>
+      </c>
+      <c r="N7" s="21">
+        <v>3086</v>
+      </c>
+      <c r="O7" s="21">
+        <v>3134</v>
+      </c>
+      <c r="P7" s="21">
+        <v>3181</v>
+      </c>
+      <c r="Q7" s="21">
+        <v>3228</v>
+      </c>
+      <c r="R7" s="21">
+        <v>3281</v>
+      </c>
+      <c r="S7" s="21">
+        <v>3328</v>
+      </c>
+      <c r="T7" s="21">
+        <v>3375</v>
+      </c>
+      <c r="U7" s="21">
+        <v>3423</v>
+      </c>
+      <c r="V7" s="21">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B8" s="79"/>
+      <c r="C8" s="9">
+        <v>1100</v>
+      </c>
+      <c r="D8" s="20">
+        <v>2633</v>
+      </c>
+      <c r="E8" s="21">
+        <v>2694</v>
+      </c>
+      <c r="F8" s="21">
+        <v>2754</v>
+      </c>
+      <c r="G8" s="21">
+        <v>2816</v>
+      </c>
+      <c r="H8" s="21">
+        <v>2853</v>
+      </c>
+      <c r="I8" s="21">
+        <v>2914</v>
+      </c>
+      <c r="J8" s="21">
+        <v>2975</v>
+      </c>
+      <c r="K8" s="21">
+        <v>3036</v>
+      </c>
+      <c r="L8" s="21">
+        <v>3097</v>
+      </c>
+      <c r="M8" s="21">
+        <v>3152</v>
+      </c>
+      <c r="N8" s="21">
+        <v>3202</v>
+      </c>
+      <c r="O8" s="21">
+        <v>3253</v>
+      </c>
+      <c r="P8" s="21">
+        <v>3303</v>
+      </c>
+      <c r="Q8" s="21">
+        <v>3353</v>
+      </c>
+      <c r="R8" s="21">
+        <v>3408</v>
+      </c>
+      <c r="S8" s="21">
+        <v>3459</v>
+      </c>
+      <c r="T8" s="21">
+        <v>3509</v>
+      </c>
+      <c r="U8" s="21">
+        <v>3559</v>
+      </c>
+      <c r="V8" s="21">
+        <v>3609</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B9" s="79"/>
+      <c r="C9" s="9">
+        <v>1200</v>
+      </c>
+      <c r="D9" s="20">
+        <v>2720</v>
+      </c>
+      <c r="E9" s="21">
+        <v>2783</v>
+      </c>
+      <c r="F9" s="21">
+        <v>2847</v>
+      </c>
+      <c r="G9" s="21">
+        <v>2911</v>
+      </c>
+      <c r="H9" s="21">
+        <v>2952</v>
+      </c>
+      <c r="I9" s="21">
+        <v>3016</v>
+      </c>
+      <c r="J9" s="21">
+        <v>3079</v>
+      </c>
+      <c r="K9" s="21">
+        <v>3143</v>
+      </c>
+      <c r="L9" s="21">
+        <v>3207</v>
+      </c>
+      <c r="M9" s="21">
+        <v>3265</v>
+      </c>
+      <c r="N9" s="21">
+        <v>3318</v>
+      </c>
+      <c r="O9" s="21">
+        <v>3371</v>
+      </c>
+      <c r="P9" s="21">
+        <v>3425</v>
+      </c>
+      <c r="Q9" s="21">
+        <v>3478</v>
+      </c>
+      <c r="R9" s="21">
+        <v>3536</v>
+      </c>
+      <c r="S9" s="21">
+        <v>3589</v>
+      </c>
+      <c r="T9" s="21">
+        <v>3643</v>
+      </c>
+      <c r="U9" s="21">
+        <v>3696</v>
+      </c>
+      <c r="V9" s="21">
+        <v>3749</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B10" s="79"/>
+      <c r="C10" s="9">
+        <v>1300</v>
+      </c>
+      <c r="D10" s="20">
+        <v>2806</v>
+      </c>
+      <c r="E10" s="21">
+        <v>2873</v>
+      </c>
+      <c r="F10" s="21">
+        <v>2939</v>
+      </c>
+      <c r="G10" s="21">
+        <v>3006</v>
+      </c>
+      <c r="H10" s="21">
+        <v>3050</v>
+      </c>
+      <c r="I10" s="21">
+        <v>3117</v>
+      </c>
+      <c r="J10" s="21">
+        <v>3183</v>
+      </c>
+      <c r="K10" s="21">
+        <v>3250</v>
+      </c>
+      <c r="L10" s="21">
+        <v>3317</v>
+      </c>
+      <c r="M10" s="21">
+        <v>3378</v>
+      </c>
+      <c r="N10" s="21">
+        <v>3434</v>
+      </c>
+      <c r="O10" s="21">
+        <v>3490</v>
+      </c>
+      <c r="P10" s="21">
+        <v>3547</v>
+      </c>
+      <c r="Q10" s="21">
+        <v>3603</v>
+      </c>
+      <c r="R10" s="21">
+        <v>3664</v>
+      </c>
+      <c r="S10" s="21">
+        <v>3720</v>
+      </c>
+      <c r="T10" s="21">
+        <v>3776</v>
+      </c>
+      <c r="U10" s="21">
+        <v>3832</v>
+      </c>
+      <c r="V10" s="21">
+        <v>3889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B11" s="79"/>
+      <c r="C11" s="9">
+        <v>1400</v>
+      </c>
+      <c r="D11" s="20">
+        <v>2919</v>
+      </c>
+      <c r="E11" s="21">
+        <v>2989</v>
+      </c>
+      <c r="F11" s="21">
+        <v>3059</v>
+      </c>
+      <c r="G11" s="21">
+        <v>3128</v>
+      </c>
+      <c r="H11" s="21">
+        <v>3171</v>
+      </c>
+      <c r="I11" s="21">
+        <v>3241</v>
+      </c>
+      <c r="J11" s="21">
+        <v>3310</v>
+      </c>
+      <c r="K11" s="21">
+        <v>3380</v>
+      </c>
+      <c r="L11" s="21">
+        <v>3450</v>
+      </c>
+      <c r="M11" s="21">
+        <v>3514</v>
+      </c>
+      <c r="N11" s="21">
+        <v>3573</v>
+      </c>
+      <c r="O11" s="21">
+        <v>3632</v>
+      </c>
+      <c r="P11" s="21">
+        <v>3691</v>
+      </c>
+      <c r="Q11" s="21">
+        <v>3750</v>
+      </c>
+      <c r="R11" s="21">
+        <v>3814</v>
+      </c>
+      <c r="S11" s="21">
+        <v>3873</v>
+      </c>
+      <c r="T11" s="21">
+        <v>3932</v>
+      </c>
+      <c r="U11" s="21">
+        <v>3992</v>
+      </c>
+      <c r="V11" s="21">
+        <v>4051</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B12" s="79"/>
+      <c r="C12" s="9">
+        <v>1500</v>
+      </c>
+      <c r="D12" s="20">
+        <v>3006</v>
+      </c>
+      <c r="E12" s="21">
+        <v>3078</v>
+      </c>
+      <c r="F12" s="21">
+        <v>3151</v>
+      </c>
+      <c r="G12" s="21">
+        <v>3224</v>
+      </c>
+      <c r="H12" s="21">
+        <v>3269</v>
+      </c>
+      <c r="I12" s="21">
+        <v>3342</v>
+      </c>
+      <c r="J12" s="21">
+        <v>3414</v>
+      </c>
+      <c r="K12" s="21">
+        <v>3487</v>
+      </c>
+      <c r="L12" s="21">
+        <v>3560</v>
+      </c>
+      <c r="M12" s="21">
+        <v>3627</v>
+      </c>
+      <c r="N12" s="21">
+        <v>3689</v>
+      </c>
+      <c r="O12" s="21">
+        <v>3751</v>
+      </c>
+      <c r="P12" s="21">
+        <v>3813</v>
+      </c>
+      <c r="Q12" s="21">
+        <v>3875</v>
+      </c>
+      <c r="R12" s="21">
+        <v>3942</v>
+      </c>
+      <c r="S12" s="21">
+        <v>4004</v>
+      </c>
+      <c r="T12" s="21">
+        <v>4066</v>
+      </c>
+      <c r="U12" s="21">
+        <v>4128</v>
+      </c>
+      <c r="V12" s="21">
+        <v>4190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B13" s="79"/>
+      <c r="C13" s="9">
+        <v>1600</v>
+      </c>
+      <c r="D13" s="20">
+        <v>3092</v>
+      </c>
+      <c r="E13" s="21">
+        <v>3168</v>
+      </c>
+      <c r="F13" s="21">
+        <v>3243</v>
+      </c>
+      <c r="G13" s="21">
+        <v>3319</v>
+      </c>
+      <c r="H13" s="21">
+        <v>3367</v>
+      </c>
+      <c r="I13" s="21">
+        <v>3443</v>
+      </c>
+      <c r="J13" s="21">
+        <v>3519</v>
+      </c>
+      <c r="K13" s="21">
+        <v>3594</v>
+      </c>
+      <c r="L13" s="21">
+        <v>3670</v>
+      </c>
+      <c r="M13" s="21">
+        <v>3740</v>
+      </c>
+      <c r="N13" s="21">
+        <v>3805</v>
+      </c>
+      <c r="O13" s="21">
+        <v>3870</v>
+      </c>
+      <c r="P13" s="21">
+        <v>3935</v>
+      </c>
+      <c r="Q13" s="21">
+        <v>4000</v>
+      </c>
+      <c r="R13" s="21">
+        <v>4070</v>
+      </c>
+      <c r="S13" s="21">
+        <v>4135</v>
+      </c>
+      <c r="T13" s="21">
+        <v>4200</v>
+      </c>
+      <c r="U13" s="21">
+        <v>4265</v>
+      </c>
+      <c r="V13" s="21">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B14" s="79"/>
+      <c r="C14" s="9">
+        <v>1700</v>
+      </c>
+      <c r="D14" s="20">
+        <v>3179</v>
+      </c>
+      <c r="E14" s="21">
+        <v>3257</v>
+      </c>
+      <c r="F14" s="21">
+        <v>3336</v>
+      </c>
+      <c r="G14" s="21">
+        <v>3414</v>
+      </c>
+      <c r="H14" s="21">
+        <v>3466</v>
+      </c>
+      <c r="I14" s="21">
+        <v>3544</v>
+      </c>
+      <c r="J14" s="21">
+        <v>3623</v>
+      </c>
+      <c r="K14" s="21">
+        <v>3701</v>
+      </c>
+      <c r="L14" s="21">
+        <v>3780</v>
+      </c>
+      <c r="M14" s="21">
+        <v>3853</v>
+      </c>
+      <c r="N14" s="21">
+        <v>3921</v>
+      </c>
+      <c r="O14" s="21">
+        <v>3989</v>
+      </c>
+      <c r="P14" s="21">
+        <v>4057</v>
+      </c>
+      <c r="Q14" s="21">
+        <v>4125</v>
+      </c>
+      <c r="R14" s="21">
+        <v>4197</v>
+      </c>
+      <c r="S14" s="21">
+        <v>4265</v>
+      </c>
+      <c r="T14" s="21">
+        <v>4333</v>
+      </c>
+      <c r="U14" s="21">
+        <v>4401</v>
+      </c>
+      <c r="V14" s="23">
+        <v>4657</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B15" s="79"/>
+      <c r="C15" s="9">
+        <v>1800</v>
+      </c>
+      <c r="D15" s="20">
+        <v>3265</v>
+      </c>
+      <c r="E15" s="21">
+        <v>3347</v>
+      </c>
+      <c r="F15" s="21">
+        <v>3428</v>
+      </c>
+      <c r="G15" s="21">
+        <v>3510</v>
+      </c>
+      <c r="H15" s="21">
+        <v>3564</v>
+      </c>
+      <c r="I15" s="21">
+        <v>3646</v>
+      </c>
+      <c r="J15" s="21">
+        <v>3727</v>
+      </c>
+      <c r="K15" s="21">
+        <v>3808</v>
+      </c>
+      <c r="L15" s="21">
+        <v>3890</v>
+      </c>
+      <c r="M15" s="21">
+        <v>3966</v>
+      </c>
+      <c r="N15" s="21">
+        <v>4037</v>
+      </c>
+      <c r="O15" s="21">
+        <v>4107</v>
+      </c>
+      <c r="P15" s="21">
+        <v>4178</v>
+      </c>
+      <c r="Q15" s="21">
+        <v>4249</v>
+      </c>
+      <c r="R15" s="21">
+        <v>4325</v>
+      </c>
+      <c r="S15" s="21">
+        <v>4396</v>
+      </c>
+      <c r="T15" s="21">
+        <v>4467</v>
+      </c>
+      <c r="U15" s="23">
+        <v>4727</v>
+      </c>
+      <c r="V15" s="23">
+        <v>4808</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B16" s="79"/>
+      <c r="C16" s="9">
+        <v>1900</v>
+      </c>
+      <c r="D16" s="20">
+        <v>3382</v>
+      </c>
+      <c r="E16" s="21">
+        <v>3466</v>
+      </c>
+      <c r="F16" s="21">
+        <v>3550</v>
+      </c>
+      <c r="G16" s="21">
+        <v>3635</v>
+      </c>
+      <c r="H16" s="21">
+        <v>3688</v>
+      </c>
+      <c r="I16" s="21">
+        <v>3772</v>
+      </c>
+      <c r="J16" s="21">
+        <v>3856</v>
+      </c>
+      <c r="K16" s="21">
+        <v>3941</v>
+      </c>
+      <c r="L16" s="21">
+        <v>4025</v>
+      </c>
+      <c r="M16" s="21">
+        <v>4104</v>
+      </c>
+      <c r="N16" s="21">
+        <v>4178</v>
+      </c>
+      <c r="O16" s="21">
+        <v>4252</v>
+      </c>
+      <c r="P16" s="21">
+        <v>4326</v>
+      </c>
+      <c r="Q16" s="21">
+        <v>4400</v>
+      </c>
+      <c r="R16" s="21">
+        <v>4478</v>
+      </c>
+      <c r="S16" s="21">
+        <v>4552</v>
+      </c>
+      <c r="T16" s="23">
+        <v>4815</v>
+      </c>
+      <c r="U16" s="23">
+        <v>4900</v>
+      </c>
+      <c r="V16" s="23">
+        <v>4985</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="B17" s="79"/>
+      <c r="C17" s="9">
+        <v>2000</v>
+      </c>
+      <c r="D17" s="20">
+        <v>3527</v>
+      </c>
+      <c r="E17" s="21">
+        <v>3614</v>
+      </c>
+      <c r="F17" s="21">
+        <v>3701</v>
+      </c>
+      <c r="G17" s="21">
+        <v>3789</v>
+      </c>
+      <c r="H17" s="21">
+        <v>3845</v>
+      </c>
+      <c r="I17" s="21">
+        <v>3932</v>
+      </c>
+      <c r="J17" s="21">
+        <v>4019</v>
+      </c>
+      <c r="K17" s="21">
+        <v>4107</v>
+      </c>
+      <c r="L17" s="21">
+        <v>4194</v>
+      </c>
+      <c r="M17" s="21">
+        <v>4276</v>
+      </c>
+      <c r="N17" s="21">
+        <v>4352</v>
+      </c>
+      <c r="O17" s="21">
+        <v>4429</v>
+      </c>
+      <c r="P17" s="21">
+        <v>4506</v>
+      </c>
+      <c r="Q17" s="21">
+        <v>4583</v>
+      </c>
+      <c r="R17" s="21">
+        <v>4665</v>
+      </c>
+      <c r="S17" s="23">
+        <v>4930</v>
+      </c>
+      <c r="T17" s="23">
+        <v>5018</v>
+      </c>
+      <c r="U17" s="23">
+        <v>5106</v>
+      </c>
+      <c r="V17" s="23">
+        <v>5194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="B18" s="79"/>
+      <c r="C18" s="9">
+        <v>2100</v>
+      </c>
+      <c r="D18" s="20">
+        <v>3613</v>
+      </c>
+      <c r="E18" s="21">
+        <v>3703</v>
+      </c>
+      <c r="F18" s="21">
+        <v>3793</v>
+      </c>
+      <c r="G18" s="21">
+        <v>3884</v>
+      </c>
+      <c r="H18" s="21">
+        <v>3943</v>
+      </c>
+      <c r="I18" s="21">
+        <v>4033</v>
+      </c>
+      <c r="J18" s="21">
+        <v>4123</v>
+      </c>
+      <c r="K18" s="21">
+        <v>4214</v>
+      </c>
+      <c r="L18" s="21">
+        <v>4304</v>
+      </c>
+      <c r="M18" s="21">
+        <v>4389</v>
+      </c>
+      <c r="N18" s="21">
+        <v>4468</v>
+      </c>
+      <c r="O18" s="21">
+        <v>4548</v>
+      </c>
+      <c r="P18" s="21">
+        <v>4628</v>
+      </c>
+      <c r="Q18" s="21">
+        <v>4708</v>
+      </c>
+      <c r="R18" s="23">
+        <v>4978</v>
+      </c>
+      <c r="S18" s="23">
+        <v>5070</v>
+      </c>
+      <c r="T18" s="23">
+        <v>5162</v>
+      </c>
+      <c r="U18" s="23">
+        <v>5254</v>
+      </c>
+      <c r="V18" s="23">
+        <v>5346</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="B19" s="79"/>
+      <c r="C19" s="9">
+        <v>2200</v>
+      </c>
+      <c r="D19" s="20">
+        <v>3700</v>
+      </c>
+      <c r="E19" s="21">
+        <v>3792</v>
+      </c>
+      <c r="F19" s="21">
+        <v>3886</v>
+      </c>
+      <c r="G19" s="21">
+        <v>3979</v>
+      </c>
+      <c r="H19" s="21">
+        <v>4041</v>
+      </c>
+      <c r="I19" s="21">
+        <v>4135</v>
+      </c>
+      <c r="J19" s="21">
+        <v>4228</v>
+      </c>
+      <c r="K19" s="21">
+        <v>4321</v>
+      </c>
+      <c r="L19" s="21">
+        <v>4414</v>
+      </c>
+      <c r="M19" s="21">
+        <v>4502</v>
+      </c>
+      <c r="N19" s="21">
+        <v>4584</v>
+      </c>
+      <c r="O19" s="21">
+        <v>4667</v>
+      </c>
+      <c r="P19" s="21">
+        <v>4750</v>
+      </c>
+      <c r="Q19" s="21">
+        <v>4833</v>
+      </c>
+      <c r="R19" s="23">
+        <v>5115</v>
+      </c>
+      <c r="S19" s="23">
+        <v>5210</v>
+      </c>
+      <c r="T19" s="23">
+        <v>5306</v>
+      </c>
+      <c r="U19" s="23">
+        <v>5401</v>
+      </c>
+      <c r="V19" s="23">
+        <v>5497</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="B20" s="79"/>
+      <c r="C20" s="9">
+        <v>2300</v>
+      </c>
+      <c r="D20" s="20">
+        <v>3862</v>
+      </c>
+      <c r="E20" s="21">
+        <v>3958</v>
+      </c>
+      <c r="F20" s="21">
+        <v>4056</v>
+      </c>
+      <c r="G20" s="21">
+        <v>4153</v>
+      </c>
+      <c r="H20" s="21">
+        <v>4219</v>
+      </c>
+      <c r="I20" s="21">
+        <v>4316</v>
+      </c>
+      <c r="J20" s="21">
+        <v>4413</v>
+      </c>
+      <c r="K20" s="21">
+        <v>4510</v>
+      </c>
+      <c r="L20" s="21">
+        <v>4608</v>
+      </c>
+      <c r="M20" s="21">
+        <v>4698</v>
+      </c>
+      <c r="N20" s="21">
+        <v>4784</v>
+      </c>
+      <c r="O20" s="21">
+        <v>4870</v>
+      </c>
+      <c r="P20" s="21">
+        <v>4955</v>
+      </c>
+      <c r="Q20" s="23">
+        <v>5232</v>
+      </c>
+      <c r="R20" s="23">
+        <v>5336</v>
+      </c>
+      <c r="S20" s="23">
+        <v>5434</v>
+      </c>
+      <c r="T20" s="23">
+        <v>5533</v>
+      </c>
+      <c r="U20" s="23">
+        <v>5632</v>
+      </c>
+      <c r="V20" s="23">
+        <v>5731</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="B21" s="79"/>
+      <c r="C21" s="9">
+        <v>2400</v>
+      </c>
+      <c r="D21" s="20">
+        <v>3950</v>
+      </c>
+      <c r="E21" s="21">
+        <v>4050</v>
+      </c>
+      <c r="F21" s="21">
+        <v>4150</v>
+      </c>
+      <c r="G21" s="21">
+        <v>4250</v>
+      </c>
+      <c r="H21" s="21">
+        <v>4319</v>
+      </c>
+      <c r="I21" s="21">
+        <v>4420</v>
+      </c>
+      <c r="J21" s="21">
+        <v>4519</v>
+      </c>
+      <c r="K21" s="21">
+        <v>4620</v>
+      </c>
+      <c r="L21" s="21">
+        <v>4720</v>
+      </c>
+      <c r="M21" s="21">
+        <v>4813</v>
+      </c>
+      <c r="N21" s="21">
+        <v>4902</v>
+      </c>
+      <c r="O21" s="21">
+        <v>4990</v>
+      </c>
+      <c r="P21" s="23">
+        <v>5265</v>
+      </c>
+      <c r="Q21" s="23">
+        <v>5367</v>
+      </c>
+      <c r="R21" s="23">
+        <v>5475</v>
+      </c>
+      <c r="S21" s="23">
+        <v>5577</v>
+      </c>
+      <c r="T21" s="23">
+        <v>5679</v>
+      </c>
+      <c r="U21" s="23">
+        <v>5782</v>
+      </c>
+      <c r="V21" s="23">
+        <v>5884</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="B22" s="79"/>
+      <c r="C22" s="9">
+        <v>2500</v>
+      </c>
+      <c r="D22" s="20">
+        <v>4068</v>
+      </c>
+      <c r="E22" s="21">
+        <v>4171</v>
+      </c>
+      <c r="F22" s="21">
+        <v>4274</v>
+      </c>
+      <c r="G22" s="21">
+        <v>4377</v>
+      </c>
+      <c r="H22" s="21">
+        <v>4445</v>
+      </c>
+      <c r="I22" s="21">
+        <v>4548</v>
+      </c>
+      <c r="J22" s="21">
+        <v>4651</v>
+      </c>
+      <c r="K22" s="21">
+        <v>4754</v>
+      </c>
+      <c r="L22" s="21">
+        <v>4857</v>
+      </c>
+      <c r="M22" s="21">
+        <v>4954</v>
+      </c>
+      <c r="N22" s="21">
+        <v>5045</v>
+      </c>
+      <c r="O22" s="21">
+        <v>5137</v>
+      </c>
+      <c r="P22" s="23">
+        <v>5422</v>
+      </c>
+      <c r="Q22" s="23">
+        <v>5528</v>
+      </c>
+      <c r="R22" s="23">
+        <v>5639</v>
+      </c>
+      <c r="S22" s="23">
+        <v>5773</v>
+      </c>
+      <c r="T22" s="23">
+        <v>5879</v>
+      </c>
+      <c r="U22" s="23">
+        <v>5985</v>
+      </c>
+      <c r="V22" s="23">
+        <v>6091</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="B23" s="79"/>
+      <c r="C23" s="9">
+        <v>2600</v>
+      </c>
+      <c r="D23" s="48">
+        <v>4299</v>
+      </c>
+      <c r="E23" s="23">
+        <v>4419</v>
+      </c>
+      <c r="F23" s="23">
+        <v>4540</v>
+      </c>
+      <c r="G23" s="23">
+        <v>4661</v>
+      </c>
+      <c r="H23" s="23">
+        <v>4746</v>
+      </c>
+      <c r="I23" s="23">
+        <v>4867</v>
+      </c>
+      <c r="J23" s="23">
+        <v>4987</v>
+      </c>
+      <c r="K23" s="23">
+        <v>5108</v>
+      </c>
+      <c r="L23" s="23">
+        <v>5293</v>
+      </c>
+      <c r="M23" s="23">
+        <v>5407</v>
+      </c>
+      <c r="N23" s="23">
+        <v>5517</v>
+      </c>
+      <c r="O23" s="23">
+        <v>5654</v>
+      </c>
+      <c r="P23" s="23">
+        <v>5764</v>
+      </c>
+      <c r="Q23" s="23">
+        <v>5873</v>
+      </c>
+      <c r="R23" s="23">
+        <v>6160</v>
+      </c>
+      <c r="S23" s="23">
+        <v>6269</v>
+      </c>
+      <c r="T23" s="23">
+        <v>6379</v>
+      </c>
+      <c r="U23" s="23">
+        <v>6489</v>
+      </c>
+      <c r="V23" s="23">
+        <v>6598</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="B24" s="79"/>
+      <c r="C24" s="9">
+        <v>2700</v>
+      </c>
+      <c r="D24" s="48">
+        <v>4393</v>
+      </c>
+      <c r="E24" s="23">
+        <v>4517</v>
+      </c>
+      <c r="F24" s="23">
+        <v>4641</v>
+      </c>
+      <c r="G24" s="23">
+        <v>4766</v>
+      </c>
+      <c r="H24" s="23">
+        <v>4854</v>
+      </c>
+      <c r="I24" s="23">
+        <v>4979</v>
+      </c>
+      <c r="J24" s="23">
+        <v>5103</v>
+      </c>
+      <c r="K24" s="23">
+        <v>5291</v>
+      </c>
+      <c r="L24" s="23">
+        <v>5444</v>
+      </c>
+      <c r="M24" s="23">
+        <v>5562</v>
+      </c>
+      <c r="N24" s="23">
+        <v>5854</v>
+      </c>
+      <c r="O24" s="23">
+        <v>5967</v>
+      </c>
+      <c r="P24" s="23">
+        <v>6080</v>
+      </c>
+      <c r="Q24" s="23">
+        <v>6193</v>
+      </c>
+      <c r="R24" s="23">
+        <v>6311</v>
+      </c>
+      <c r="S24" s="23">
+        <v>6424</v>
+      </c>
+      <c r="T24" s="23">
+        <v>6537</v>
+      </c>
+      <c r="U24" s="23">
+        <v>6650</v>
+      </c>
+      <c r="V24" s="23">
+        <v>6763</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="B25" s="79"/>
+      <c r="C25" s="9">
+        <v>2800</v>
+      </c>
+      <c r="D25" s="24">
+        <v>4488</v>
+      </c>
+      <c r="E25" s="12">
+        <v>4615</v>
+      </c>
+      <c r="F25" s="12">
+        <v>4742</v>
+      </c>
+      <c r="G25" s="12">
+        <v>4871</v>
+      </c>
+      <c r="H25" s="12">
+        <v>4963</v>
+      </c>
+      <c r="I25" s="12">
+        <v>5090</v>
+      </c>
+      <c r="J25" s="12">
+        <v>5312</v>
+      </c>
+      <c r="K25" s="12">
+        <v>5440</v>
+      </c>
+      <c r="L25" s="12">
+        <v>5567</v>
+      </c>
+      <c r="M25" s="12">
+        <v>5875</v>
+      </c>
+      <c r="N25" s="12">
+        <v>5991</v>
+      </c>
+      <c r="O25" s="12">
+        <v>6108</v>
+      </c>
+      <c r="P25" s="12">
+        <v>6224</v>
+      </c>
+      <c r="Q25" s="12">
+        <v>6341</v>
+      </c>
+      <c r="R25" s="12">
+        <v>6462</v>
+      </c>
+      <c r="S25" s="12">
+        <v>6579</v>
+      </c>
+      <c r="T25" s="12">
+        <v>6695</v>
+      </c>
+      <c r="U25" s="12">
+        <v>6812</v>
+      </c>
+      <c r="V25" s="12">
+        <v>6928</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="B26" s="79"/>
+      <c r="C26" s="9">
+        <v>2900</v>
+      </c>
+      <c r="D26" s="24">
+        <v>4582</v>
+      </c>
+      <c r="E26" s="12">
+        <v>4713</v>
+      </c>
+      <c r="F26" s="12">
+        <v>4844</v>
+      </c>
+      <c r="G26" s="12">
+        <v>4975</v>
+      </c>
+      <c r="H26" s="12">
+        <v>5101</v>
+      </c>
+      <c r="I26" s="12">
+        <v>5233</v>
+      </c>
+      <c r="J26" s="12">
+        <v>5620</v>
+      </c>
+      <c r="K26" s="12">
+        <v>5751</v>
+      </c>
+      <c r="L26" s="12">
+        <v>5883</v>
+      </c>
+      <c r="M26" s="12">
+        <v>6008</v>
+      </c>
+      <c r="N26" s="12">
+        <v>6128</v>
+      </c>
+      <c r="O26" s="12">
+        <v>6248</v>
+      </c>
+      <c r="P26" s="12">
+        <v>6368</v>
+      </c>
+      <c r="Q26" s="12">
+        <v>6488</v>
+      </c>
+      <c r="R26" s="12">
+        <v>6613</v>
+      </c>
+      <c r="S26" s="12">
+        <v>6733</v>
+      </c>
+      <c r="T26" s="12">
+        <v>6853</v>
+      </c>
+      <c r="U26" s="12">
+        <v>6973</v>
+      </c>
+      <c r="V26" s="12">
+        <v>7093</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="80"/>
+      <c r="C27" s="4">
+        <v>3000</v>
+      </c>
+      <c r="D27" s="24">
+        <v>3703</v>
+      </c>
+      <c r="E27" s="12">
+        <v>4810</v>
+      </c>
+      <c r="F27" s="12">
+        <v>4945</v>
+      </c>
+      <c r="G27" s="12">
+        <v>5111</v>
+      </c>
+      <c r="H27" s="12">
+        <v>5210</v>
+      </c>
+      <c r="I27" s="12">
+        <v>5609</v>
+      </c>
+      <c r="J27" s="12">
+        <v>5743</v>
+      </c>
+      <c r="K27" s="12">
+        <v>5878</v>
+      </c>
+      <c r="L27" s="12">
+        <v>6013</v>
+      </c>
+      <c r="M27" s="12">
+        <v>6141</v>
+      </c>
+      <c r="N27" s="12">
+        <v>6265</v>
+      </c>
+      <c r="O27" s="12">
+        <v>6389</v>
+      </c>
+      <c r="P27" s="12">
+        <v>6512</v>
+      </c>
+      <c r="Q27" s="12">
+        <v>6636</v>
+      </c>
+      <c r="R27" s="12">
+        <v>6764</v>
+      </c>
+      <c r="S27" s="12">
+        <v>6888</v>
+      </c>
+      <c r="T27" s="12">
+        <v>7011</v>
+      </c>
+      <c r="U27" s="12">
+        <v>7135</v>
+      </c>
+      <c r="V27" s="12">
+        <v>7259</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="X28" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y28" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="X29" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y29" s="15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="30" x14ac:dyDescent="0.35">
+      <c r="A30" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="X30" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y30" s="15">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" ht="20" x14ac:dyDescent="0.35">
+      <c r="A31" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="15">
+        <v>242</v>
+      </c>
+      <c r="X31" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y31" s="15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" ht="20" x14ac:dyDescent="0.35">
+      <c r="A32" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="15">
+        <v>573</v>
+      </c>
+      <c r="X32" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y32" s="15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="15">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D2:V2"/>
+    <mergeCell ref="B4:B27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B6EAA6-E436-4BBE-BA0C-2374430CEFF1}">
   <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
@@ -6197,37 +7946,37 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="71"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="74" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="76"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="77"/>
     </row>
     <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="73"/>
-      <c r="C3" s="61"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="2">
         <v>1200</v>
       </c>
@@ -6290,7 +8039,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="78" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="6">
@@ -6354,11 +8103,11 @@
         <v>6240</v>
       </c>
       <c r="X4" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B5" s="78"/>
+      <c r="B5" s="79"/>
       <c r="C5" s="9">
         <v>800</v>
       </c>
@@ -6421,7 +8170,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B6" s="78"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="9">
         <v>900</v>
       </c>
@@ -6484,7 +8233,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B7" s="78"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="9">
         <v>1000</v>
       </c>
@@ -6547,7 +8296,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B8" s="78"/>
+      <c r="B8" s="79"/>
       <c r="C8" s="9">
         <v>1100</v>
       </c>
@@ -6610,7 +8359,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B9" s="78"/>
+      <c r="B9" s="79"/>
       <c r="C9" s="9">
         <v>1200</v>
       </c>
@@ -6673,7 +8422,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B10" s="78"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="9">
         <v>1300</v>
       </c>
@@ -6736,7 +8485,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B11" s="78"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="9">
         <v>1400</v>
       </c>
@@ -6799,7 +8548,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B12" s="78"/>
+      <c r="B12" s="79"/>
       <c r="C12" s="9">
         <v>1500</v>
       </c>
@@ -6862,7 +8611,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B13" s="78"/>
+      <c r="B13" s="79"/>
       <c r="C13" s="9">
         <v>1600</v>
       </c>
@@ -6925,7 +8674,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B14" s="78"/>
+      <c r="B14" s="79"/>
       <c r="C14" s="9">
         <v>1700</v>
       </c>
@@ -6988,7 +8737,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B15" s="78"/>
+      <c r="B15" s="79"/>
       <c r="C15" s="9">
         <v>1800</v>
       </c>
@@ -7051,7 +8800,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B16" s="78"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="9">
         <v>1900</v>
       </c>
@@ -7114,7 +8863,7 @@
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B17" s="78"/>
+      <c r="B17" s="79"/>
       <c r="C17" s="9">
         <v>2000</v>
       </c>
@@ -7177,7 +8926,7 @@
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B18" s="78"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="9">
         <v>2100</v>
       </c>
@@ -7240,7 +8989,7 @@
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B19" s="78"/>
+      <c r="B19" s="79"/>
       <c r="C19" s="9">
         <v>2200</v>
       </c>
@@ -7303,7 +9052,7 @@
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B20" s="78"/>
+      <c r="B20" s="79"/>
       <c r="C20" s="9">
         <v>2300</v>
       </c>
@@ -7366,7 +9115,7 @@
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B21" s="78"/>
+      <c r="B21" s="79"/>
       <c r="C21" s="9">
         <v>2400</v>
       </c>
@@ -7429,7 +9178,7 @@
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B22" s="78"/>
+      <c r="B22" s="79"/>
       <c r="C22" s="9">
         <v>2500</v>
       </c>
@@ -7492,7 +9241,7 @@
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B23" s="78"/>
+      <c r="B23" s="79"/>
       <c r="C23" s="9">
         <v>2600</v>
       </c>
@@ -7555,7 +9304,7 @@
       </c>
     </row>
     <row r="24" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="79"/>
+      <c r="B24" s="80"/>
       <c r="C24" s="4">
         <v>2700</v>
       </c>
@@ -7627,17 +9376,17 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>5</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>6</v>
       </c>
       <c r="X30" s="25"/>
       <c r="Y30" s="15"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="15">
         <v>242</v>
@@ -7647,7 +9396,7 @@
     </row>
     <row r="32" spans="1:25" ht="20" x14ac:dyDescent="0.35">
       <c r="A32" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="15">
         <v>1146</v>
@@ -7657,7 +9406,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="15">
         <v>388</v>
@@ -7678,11 +9427,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5378C79B-0E42-44A4-AB1B-56918D9B4ECC}">
   <dimension ref="A1:Y34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="K13" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -7698,37 +9447,37 @@
   <sheetData>
     <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="71"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="74" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="76"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="77"/>
     </row>
     <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="73"/>
-      <c r="C3" s="61"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="2">
         <v>1200</v>
       </c>
@@ -7791,7 +9540,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="78" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="45">
@@ -7856,7 +9605,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B5" s="78"/>
+      <c r="B5" s="79"/>
       <c r="C5" s="46">
         <v>800</v>
       </c>
@@ -7919,7 +9668,7 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B6" s="78"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="46">
         <v>900</v>
       </c>
@@ -7982,7 +9731,7 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B7" s="78"/>
+      <c r="B7" s="79"/>
       <c r="C7" s="46">
         <v>1000</v>
       </c>
@@ -8045,7 +9794,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B8" s="78"/>
+      <c r="B8" s="79"/>
       <c r="C8" s="46">
         <v>1100</v>
       </c>
@@ -8108,7 +9857,7 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B9" s="78"/>
+      <c r="B9" s="79"/>
       <c r="C9" s="46">
         <v>1200</v>
       </c>
@@ -8171,7 +9920,7 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B10" s="78"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="46">
         <v>1300</v>
       </c>
@@ -8234,7 +9983,7 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B11" s="78"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="46">
         <v>1400</v>
       </c>
@@ -8297,7 +10046,7 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B12" s="78"/>
+      <c r="B12" s="79"/>
       <c r="C12" s="46">
         <v>1500</v>
       </c>
@@ -8360,7 +10109,7 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B13" s="78"/>
+      <c r="B13" s="79"/>
       <c r="C13" s="46">
         <v>1600</v>
       </c>
@@ -8423,7 +10172,7 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B14" s="78"/>
+      <c r="B14" s="79"/>
       <c r="C14" s="46">
         <v>1700</v>
       </c>
@@ -8486,7 +10235,7 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B15" s="78"/>
+      <c r="B15" s="79"/>
       <c r="C15" s="46">
         <v>1800</v>
       </c>
@@ -8549,7 +10298,7 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B16" s="78"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="46">
         <v>1900</v>
       </c>
@@ -8612,7 +10361,7 @@
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B17" s="78"/>
+      <c r="B17" s="79"/>
       <c r="C17" s="46">
         <v>2000</v>
       </c>
@@ -8675,7 +10424,7 @@
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B18" s="78"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="46">
         <v>2100</v>
       </c>
@@ -8738,7 +10487,7 @@
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B19" s="78"/>
+      <c r="B19" s="79"/>
       <c r="C19" s="46">
         <v>2200</v>
       </c>
@@ -8801,7 +10550,7 @@
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B20" s="78"/>
+      <c r="B20" s="79"/>
       <c r="C20" s="46">
         <v>2300</v>
       </c>
@@ -8864,7 +10613,7 @@
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B21" s="78"/>
+      <c r="B21" s="79"/>
       <c r="C21" s="46">
         <v>2400</v>
       </c>
@@ -8927,7 +10676,7 @@
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B22" s="78"/>
+      <c r="B22" s="79"/>
       <c r="C22" s="46">
         <v>2500</v>
       </c>
@@ -8990,7 +10739,7 @@
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B23" s="78"/>
+      <c r="B23" s="79"/>
       <c r="C23" s="46">
         <v>2600</v>
       </c>
@@ -9053,7 +10802,7 @@
       </c>
     </row>
     <row r="24" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="79"/>
+      <c r="B24" s="80"/>
       <c r="C24" s="47">
         <v>2700</v>
       </c>
@@ -9125,17 +10874,17 @@
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="13" t="s">
         <v>5</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>6</v>
       </c>
       <c r="X30" s="25"/>
       <c r="Y30" s="15"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="15">
         <v>242</v>
@@ -9145,7 +10894,7 @@
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A32" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32" s="15">
         <v>573</v>
@@ -9155,7 +10904,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33" s="15">
         <v>194</v>
@@ -9176,1724 +10925,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F75182-FF93-4610-9DD1-45EF747A5A10}">
-  <dimension ref="A1:Y34"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="42.1796875" customWidth="1"/>
-    <col min="2" max="2" width="10.90625" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="17" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="71"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="76"/>
-    </row>
-    <row r="3" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="73"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="2">
-        <v>1200</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1300</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1400</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1600</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1700</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1800</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1900</v>
-      </c>
-      <c r="L3" s="3">
-        <v>2000</v>
-      </c>
-      <c r="M3" s="3">
-        <v>2100</v>
-      </c>
-      <c r="N3" s="3">
-        <v>2200</v>
-      </c>
-      <c r="O3" s="3">
-        <v>2300</v>
-      </c>
-      <c r="P3" s="3">
-        <v>2400</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>2500</v>
-      </c>
-      <c r="R3" s="3">
-        <v>2600</v>
-      </c>
-      <c r="S3" s="3">
-        <v>2700</v>
-      </c>
-      <c r="T3" s="3">
-        <v>2800</v>
-      </c>
-      <c r="U3" s="3">
-        <v>2900</v>
-      </c>
-      <c r="V3" s="4">
-        <v>3000</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B4" s="77" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6">
-        <v>700</v>
-      </c>
-      <c r="D4" s="16">
-        <v>2293</v>
-      </c>
-      <c r="E4" s="17">
-        <v>2342</v>
-      </c>
-      <c r="F4" s="17">
-        <v>2391</v>
-      </c>
-      <c r="G4" s="17">
-        <v>2440</v>
-      </c>
-      <c r="H4" s="17">
-        <v>2467</v>
-      </c>
-      <c r="I4" s="17">
-        <v>2516</v>
-      </c>
-      <c r="J4" s="17">
-        <v>2565</v>
-      </c>
-      <c r="K4" s="17">
-        <v>2614</v>
-      </c>
-      <c r="L4" s="17">
-        <v>2663</v>
-      </c>
-      <c r="M4" s="17">
-        <v>2706</v>
-      </c>
-      <c r="N4" s="17">
-        <v>2745</v>
-      </c>
-      <c r="O4" s="17">
-        <v>2783</v>
-      </c>
-      <c r="P4" s="17">
-        <v>2822</v>
-      </c>
-      <c r="Q4" s="17">
-        <v>2860</v>
-      </c>
-      <c r="R4" s="17">
-        <v>2903</v>
-      </c>
-      <c r="S4" s="17">
-        <v>2942</v>
-      </c>
-      <c r="T4" s="17">
-        <v>2981</v>
-      </c>
-      <c r="U4" s="17">
-        <v>3019</v>
-      </c>
-      <c r="V4" s="17">
-        <v>3058</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B5" s="78"/>
-      <c r="C5" s="9">
-        <v>800</v>
-      </c>
-      <c r="D5" s="20">
-        <v>2380</v>
-      </c>
-      <c r="E5" s="21">
-        <v>2432</v>
-      </c>
-      <c r="F5" s="21">
-        <v>2484</v>
-      </c>
-      <c r="G5" s="21">
-        <v>2536</v>
-      </c>
-      <c r="H5" s="21">
-        <v>2565</v>
-      </c>
-      <c r="I5" s="21">
-        <v>2617</v>
-      </c>
-      <c r="J5" s="21">
-        <v>2669</v>
-      </c>
-      <c r="K5" s="21">
-        <v>2721</v>
-      </c>
-      <c r="L5" s="21">
-        <v>2773</v>
-      </c>
-      <c r="M5" s="21">
-        <v>2819</v>
-      </c>
-      <c r="N5" s="21">
-        <v>2861</v>
-      </c>
-      <c r="O5" s="21">
-        <v>2902</v>
-      </c>
-      <c r="P5" s="21">
-        <v>2944</v>
-      </c>
-      <c r="Q5" s="21">
-        <v>2985</v>
-      </c>
-      <c r="R5" s="21">
-        <v>3031</v>
-      </c>
-      <c r="S5" s="21">
-        <v>3073</v>
-      </c>
-      <c r="T5" s="21">
-        <v>3114</v>
-      </c>
-      <c r="U5" s="21">
-        <v>3156</v>
-      </c>
-      <c r="V5" s="21">
-        <v>3197</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B6" s="78"/>
-      <c r="C6" s="9">
-        <v>900</v>
-      </c>
-      <c r="D6" s="20">
-        <v>2460</v>
-      </c>
-      <c r="E6" s="21">
-        <v>2515</v>
-      </c>
-      <c r="F6" s="21">
-        <v>2570</v>
-      </c>
-      <c r="G6" s="21">
-        <v>2625</v>
-      </c>
-      <c r="H6" s="21">
-        <v>2657</v>
-      </c>
-      <c r="I6" s="21">
-        <v>2712</v>
-      </c>
-      <c r="J6" s="21">
-        <v>2767</v>
-      </c>
-      <c r="K6" s="21">
-        <v>2822</v>
-      </c>
-      <c r="L6" s="21">
-        <v>2877</v>
-      </c>
-      <c r="M6" s="21">
-        <v>2926</v>
-      </c>
-      <c r="N6" s="21">
-        <v>2970</v>
-      </c>
-      <c r="O6" s="21">
-        <v>3015</v>
-      </c>
-      <c r="P6" s="21">
-        <v>3059</v>
-      </c>
-      <c r="Q6" s="21">
-        <v>3104</v>
-      </c>
-      <c r="R6" s="21">
-        <v>3153</v>
-      </c>
-      <c r="S6" s="21">
-        <v>3197</v>
-      </c>
-      <c r="T6" s="21">
-        <v>3242</v>
-      </c>
-      <c r="U6" s="21">
-        <v>3286</v>
-      </c>
-      <c r="V6" s="21">
-        <v>3330</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B7" s="78"/>
-      <c r="C7" s="9">
-        <v>1000</v>
-      </c>
-      <c r="D7" s="20">
-        <v>2547</v>
-      </c>
-      <c r="E7" s="21">
-        <v>2604</v>
-      </c>
-      <c r="F7" s="21">
-        <v>2662</v>
-      </c>
-      <c r="G7" s="21">
-        <v>2720</v>
-      </c>
-      <c r="H7" s="21">
-        <v>2755</v>
-      </c>
-      <c r="I7" s="21">
-        <v>2813</v>
-      </c>
-      <c r="J7" s="21">
-        <v>2871</v>
-      </c>
-      <c r="K7" s="21">
-        <v>2929</v>
-      </c>
-      <c r="L7" s="21">
-        <v>2987</v>
-      </c>
-      <c r="M7" s="21">
-        <v>3039</v>
-      </c>
-      <c r="N7" s="21">
-        <v>3086</v>
-      </c>
-      <c r="O7" s="21">
-        <v>3134</v>
-      </c>
-      <c r="P7" s="21">
-        <v>3181</v>
-      </c>
-      <c r="Q7" s="21">
-        <v>3228</v>
-      </c>
-      <c r="R7" s="21">
-        <v>3281</v>
-      </c>
-      <c r="S7" s="21">
-        <v>3328</v>
-      </c>
-      <c r="T7" s="21">
-        <v>3375</v>
-      </c>
-      <c r="U7" s="21">
-        <v>3423</v>
-      </c>
-      <c r="V7" s="21">
-        <v>3470</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B8" s="78"/>
-      <c r="C8" s="9">
-        <v>1100</v>
-      </c>
-      <c r="D8" s="20">
-        <v>2633</v>
-      </c>
-      <c r="E8" s="21">
-        <v>2694</v>
-      </c>
-      <c r="F8" s="21">
-        <v>2754</v>
-      </c>
-      <c r="G8" s="21">
-        <v>2816</v>
-      </c>
-      <c r="H8" s="21">
-        <v>2853</v>
-      </c>
-      <c r="I8" s="21">
-        <v>2914</v>
-      </c>
-      <c r="J8" s="21">
-        <v>2975</v>
-      </c>
-      <c r="K8" s="21">
-        <v>3036</v>
-      </c>
-      <c r="L8" s="21">
-        <v>3097</v>
-      </c>
-      <c r="M8" s="21">
-        <v>3152</v>
-      </c>
-      <c r="N8" s="21">
-        <v>3202</v>
-      </c>
-      <c r="O8" s="21">
-        <v>3253</v>
-      </c>
-      <c r="P8" s="21">
-        <v>3303</v>
-      </c>
-      <c r="Q8" s="21">
-        <v>3353</v>
-      </c>
-      <c r="R8" s="21">
-        <v>3408</v>
-      </c>
-      <c r="S8" s="21">
-        <v>3459</v>
-      </c>
-      <c r="T8" s="21">
-        <v>3509</v>
-      </c>
-      <c r="U8" s="21">
-        <v>3559</v>
-      </c>
-      <c r="V8" s="21">
-        <v>3609</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B9" s="78"/>
-      <c r="C9" s="9">
-        <v>1200</v>
-      </c>
-      <c r="D9" s="20">
-        <v>2720</v>
-      </c>
-      <c r="E9" s="21">
-        <v>2783</v>
-      </c>
-      <c r="F9" s="21">
-        <v>2847</v>
-      </c>
-      <c r="G9" s="21">
-        <v>2911</v>
-      </c>
-      <c r="H9" s="21">
-        <v>2952</v>
-      </c>
-      <c r="I9" s="21">
-        <v>3016</v>
-      </c>
-      <c r="J9" s="21">
-        <v>3079</v>
-      </c>
-      <c r="K9" s="21">
-        <v>3143</v>
-      </c>
-      <c r="L9" s="21">
-        <v>3207</v>
-      </c>
-      <c r="M9" s="21">
-        <v>3265</v>
-      </c>
-      <c r="N9" s="21">
-        <v>3318</v>
-      </c>
-      <c r="O9" s="21">
-        <v>3371</v>
-      </c>
-      <c r="P9" s="21">
-        <v>3425</v>
-      </c>
-      <c r="Q9" s="21">
-        <v>3478</v>
-      </c>
-      <c r="R9" s="21">
-        <v>3536</v>
-      </c>
-      <c r="S9" s="21">
-        <v>3589</v>
-      </c>
-      <c r="T9" s="21">
-        <v>3643</v>
-      </c>
-      <c r="U9" s="21">
-        <v>3696</v>
-      </c>
-      <c r="V9" s="21">
-        <v>3749</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B10" s="78"/>
-      <c r="C10" s="9">
-        <v>1300</v>
-      </c>
-      <c r="D10" s="20">
-        <v>2806</v>
-      </c>
-      <c r="E10" s="21">
-        <v>2873</v>
-      </c>
-      <c r="F10" s="21">
-        <v>2939</v>
-      </c>
-      <c r="G10" s="21">
-        <v>3006</v>
-      </c>
-      <c r="H10" s="21">
-        <v>3050</v>
-      </c>
-      <c r="I10" s="21">
-        <v>3117</v>
-      </c>
-      <c r="J10" s="21">
-        <v>3183</v>
-      </c>
-      <c r="K10" s="21">
-        <v>3250</v>
-      </c>
-      <c r="L10" s="21">
-        <v>3317</v>
-      </c>
-      <c r="M10" s="21">
-        <v>3378</v>
-      </c>
-      <c r="N10" s="21">
-        <v>3434</v>
-      </c>
-      <c r="O10" s="21">
-        <v>3490</v>
-      </c>
-      <c r="P10" s="21">
-        <v>3547</v>
-      </c>
-      <c r="Q10" s="21">
-        <v>3603</v>
-      </c>
-      <c r="R10" s="21">
-        <v>3664</v>
-      </c>
-      <c r="S10" s="21">
-        <v>3720</v>
-      </c>
-      <c r="T10" s="21">
-        <v>3776</v>
-      </c>
-      <c r="U10" s="21">
-        <v>3832</v>
-      </c>
-      <c r="V10" s="21">
-        <v>3889</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B11" s="78"/>
-      <c r="C11" s="9">
-        <v>1400</v>
-      </c>
-      <c r="D11" s="20">
-        <v>2919</v>
-      </c>
-      <c r="E11" s="21">
-        <v>2989</v>
-      </c>
-      <c r="F11" s="21">
-        <v>3059</v>
-      </c>
-      <c r="G11" s="21">
-        <v>3128</v>
-      </c>
-      <c r="H11" s="21">
-        <v>3171</v>
-      </c>
-      <c r="I11" s="21">
-        <v>3241</v>
-      </c>
-      <c r="J11" s="21">
-        <v>3310</v>
-      </c>
-      <c r="K11" s="21">
-        <v>3380</v>
-      </c>
-      <c r="L11" s="21">
-        <v>3450</v>
-      </c>
-      <c r="M11" s="21">
-        <v>3514</v>
-      </c>
-      <c r="N11" s="21">
-        <v>3573</v>
-      </c>
-      <c r="O11" s="21">
-        <v>3632</v>
-      </c>
-      <c r="P11" s="21">
-        <v>3691</v>
-      </c>
-      <c r="Q11" s="21">
-        <v>3750</v>
-      </c>
-      <c r="R11" s="21">
-        <v>3814</v>
-      </c>
-      <c r="S11" s="21">
-        <v>3873</v>
-      </c>
-      <c r="T11" s="21">
-        <v>3932</v>
-      </c>
-      <c r="U11" s="21">
-        <v>3992</v>
-      </c>
-      <c r="V11" s="21">
-        <v>4051</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B12" s="78"/>
-      <c r="C12" s="9">
-        <v>1500</v>
-      </c>
-      <c r="D12" s="20">
-        <v>3006</v>
-      </c>
-      <c r="E12" s="21">
-        <v>3078</v>
-      </c>
-      <c r="F12" s="21">
-        <v>3151</v>
-      </c>
-      <c r="G12" s="21">
-        <v>3224</v>
-      </c>
-      <c r="H12" s="21">
-        <v>3269</v>
-      </c>
-      <c r="I12" s="21">
-        <v>3342</v>
-      </c>
-      <c r="J12" s="21">
-        <v>3414</v>
-      </c>
-      <c r="K12" s="21">
-        <v>3487</v>
-      </c>
-      <c r="L12" s="21">
-        <v>3560</v>
-      </c>
-      <c r="M12" s="21">
-        <v>3627</v>
-      </c>
-      <c r="N12" s="21">
-        <v>3689</v>
-      </c>
-      <c r="O12" s="21">
-        <v>3751</v>
-      </c>
-      <c r="P12" s="21">
-        <v>3813</v>
-      </c>
-      <c r="Q12" s="21">
-        <v>3875</v>
-      </c>
-      <c r="R12" s="21">
-        <v>3942</v>
-      </c>
-      <c r="S12" s="21">
-        <v>4004</v>
-      </c>
-      <c r="T12" s="21">
-        <v>4066</v>
-      </c>
-      <c r="U12" s="21">
-        <v>4128</v>
-      </c>
-      <c r="V12" s="21">
-        <v>4190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B13" s="78"/>
-      <c r="C13" s="9">
-        <v>1600</v>
-      </c>
-      <c r="D13" s="20">
-        <v>3092</v>
-      </c>
-      <c r="E13" s="21">
-        <v>3168</v>
-      </c>
-      <c r="F13" s="21">
-        <v>3243</v>
-      </c>
-      <c r="G13" s="21">
-        <v>3319</v>
-      </c>
-      <c r="H13" s="21">
-        <v>3367</v>
-      </c>
-      <c r="I13" s="21">
-        <v>3443</v>
-      </c>
-      <c r="J13" s="21">
-        <v>3519</v>
-      </c>
-      <c r="K13" s="21">
-        <v>3594</v>
-      </c>
-      <c r="L13" s="21">
-        <v>3670</v>
-      </c>
-      <c r="M13" s="21">
-        <v>3740</v>
-      </c>
-      <c r="N13" s="21">
-        <v>3805</v>
-      </c>
-      <c r="O13" s="21">
-        <v>3870</v>
-      </c>
-      <c r="P13" s="21">
-        <v>3935</v>
-      </c>
-      <c r="Q13" s="21">
-        <v>4000</v>
-      </c>
-      <c r="R13" s="21">
-        <v>4070</v>
-      </c>
-      <c r="S13" s="21">
-        <v>4135</v>
-      </c>
-      <c r="T13" s="21">
-        <v>4200</v>
-      </c>
-      <c r="U13" s="21">
-        <v>4265</v>
-      </c>
-      <c r="V13" s="21">
-        <v>4330</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B14" s="78"/>
-      <c r="C14" s="9">
-        <v>1700</v>
-      </c>
-      <c r="D14" s="20">
-        <v>3179</v>
-      </c>
-      <c r="E14" s="21">
-        <v>3257</v>
-      </c>
-      <c r="F14" s="21">
-        <v>3336</v>
-      </c>
-      <c r="G14" s="21">
-        <v>3414</v>
-      </c>
-      <c r="H14" s="21">
-        <v>3466</v>
-      </c>
-      <c r="I14" s="21">
-        <v>3544</v>
-      </c>
-      <c r="J14" s="21">
-        <v>3623</v>
-      </c>
-      <c r="K14" s="21">
-        <v>3701</v>
-      </c>
-      <c r="L14" s="21">
-        <v>3780</v>
-      </c>
-      <c r="M14" s="21">
-        <v>3853</v>
-      </c>
-      <c r="N14" s="21">
-        <v>3921</v>
-      </c>
-      <c r="O14" s="21">
-        <v>3989</v>
-      </c>
-      <c r="P14" s="21">
-        <v>4057</v>
-      </c>
-      <c r="Q14" s="21">
-        <v>4125</v>
-      </c>
-      <c r="R14" s="21">
-        <v>4197</v>
-      </c>
-      <c r="S14" s="21">
-        <v>4265</v>
-      </c>
-      <c r="T14" s="21">
-        <v>4333</v>
-      </c>
-      <c r="U14" s="21">
-        <v>4401</v>
-      </c>
-      <c r="V14" s="23">
-        <v>4657</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B15" s="78"/>
-      <c r="C15" s="9">
-        <v>1800</v>
-      </c>
-      <c r="D15" s="20">
-        <v>3265</v>
-      </c>
-      <c r="E15" s="21">
-        <v>3347</v>
-      </c>
-      <c r="F15" s="21">
-        <v>3428</v>
-      </c>
-      <c r="G15" s="21">
-        <v>3510</v>
-      </c>
-      <c r="H15" s="21">
-        <v>3564</v>
-      </c>
-      <c r="I15" s="21">
-        <v>3646</v>
-      </c>
-      <c r="J15" s="21">
-        <v>3727</v>
-      </c>
-      <c r="K15" s="21">
-        <v>3808</v>
-      </c>
-      <c r="L15" s="21">
-        <v>3890</v>
-      </c>
-      <c r="M15" s="21">
-        <v>3966</v>
-      </c>
-      <c r="N15" s="21">
-        <v>4037</v>
-      </c>
-      <c r="O15" s="21">
-        <v>4107</v>
-      </c>
-      <c r="P15" s="21">
-        <v>4178</v>
-      </c>
-      <c r="Q15" s="21">
-        <v>4249</v>
-      </c>
-      <c r="R15" s="21">
-        <v>4325</v>
-      </c>
-      <c r="S15" s="21">
-        <v>4396</v>
-      </c>
-      <c r="T15" s="21">
-        <v>4467</v>
-      </c>
-      <c r="U15" s="23">
-        <v>4727</v>
-      </c>
-      <c r="V15" s="23">
-        <v>4808</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B16" s="78"/>
-      <c r="C16" s="9">
-        <v>1900</v>
-      </c>
-      <c r="D16" s="20">
-        <v>3382</v>
-      </c>
-      <c r="E16" s="21">
-        <v>3466</v>
-      </c>
-      <c r="F16" s="21">
-        <v>3550</v>
-      </c>
-      <c r="G16" s="21">
-        <v>3635</v>
-      </c>
-      <c r="H16" s="21">
-        <v>3688</v>
-      </c>
-      <c r="I16" s="21">
-        <v>3772</v>
-      </c>
-      <c r="J16" s="21">
-        <v>3856</v>
-      </c>
-      <c r="K16" s="21">
-        <v>3941</v>
-      </c>
-      <c r="L16" s="21">
-        <v>4025</v>
-      </c>
-      <c r="M16" s="21">
-        <v>4104</v>
-      </c>
-      <c r="N16" s="21">
-        <v>4178</v>
-      </c>
-      <c r="O16" s="21">
-        <v>4252</v>
-      </c>
-      <c r="P16" s="21">
-        <v>4326</v>
-      </c>
-      <c r="Q16" s="21">
-        <v>4400</v>
-      </c>
-      <c r="R16" s="21">
-        <v>4478</v>
-      </c>
-      <c r="S16" s="21">
-        <v>4552</v>
-      </c>
-      <c r="T16" s="23">
-        <v>4815</v>
-      </c>
-      <c r="U16" s="23">
-        <v>4900</v>
-      </c>
-      <c r="V16" s="23">
-        <v>4985</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B17" s="78"/>
-      <c r="C17" s="9">
-        <v>2000</v>
-      </c>
-      <c r="D17" s="20">
-        <v>3527</v>
-      </c>
-      <c r="E17" s="21">
-        <v>3614</v>
-      </c>
-      <c r="F17" s="21">
-        <v>3701</v>
-      </c>
-      <c r="G17" s="21">
-        <v>3789</v>
-      </c>
-      <c r="H17" s="21">
-        <v>3845</v>
-      </c>
-      <c r="I17" s="21">
-        <v>3932</v>
-      </c>
-      <c r="J17" s="21">
-        <v>4019</v>
-      </c>
-      <c r="K17" s="21">
-        <v>4107</v>
-      </c>
-      <c r="L17" s="21">
-        <v>4194</v>
-      </c>
-      <c r="M17" s="21">
-        <v>4276</v>
-      </c>
-      <c r="N17" s="21">
-        <v>4352</v>
-      </c>
-      <c r="O17" s="21">
-        <v>4429</v>
-      </c>
-      <c r="P17" s="21">
-        <v>4506</v>
-      </c>
-      <c r="Q17" s="21">
-        <v>4583</v>
-      </c>
-      <c r="R17" s="21">
-        <v>4665</v>
-      </c>
-      <c r="S17" s="23">
-        <v>4930</v>
-      </c>
-      <c r="T17" s="23">
-        <v>5018</v>
-      </c>
-      <c r="U17" s="23">
-        <v>5106</v>
-      </c>
-      <c r="V17" s="23">
-        <v>5194</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B18" s="78"/>
-      <c r="C18" s="9">
-        <v>2100</v>
-      </c>
-      <c r="D18" s="20">
-        <v>3613</v>
-      </c>
-      <c r="E18" s="21">
-        <v>3703</v>
-      </c>
-      <c r="F18" s="21">
-        <v>3793</v>
-      </c>
-      <c r="G18" s="21">
-        <v>3884</v>
-      </c>
-      <c r="H18" s="21">
-        <v>3943</v>
-      </c>
-      <c r="I18" s="21">
-        <v>4033</v>
-      </c>
-      <c r="J18" s="21">
-        <v>4123</v>
-      </c>
-      <c r="K18" s="21">
-        <v>4214</v>
-      </c>
-      <c r="L18" s="21">
-        <v>4304</v>
-      </c>
-      <c r="M18" s="21">
-        <v>4389</v>
-      </c>
-      <c r="N18" s="21">
-        <v>4468</v>
-      </c>
-      <c r="O18" s="21">
-        <v>4548</v>
-      </c>
-      <c r="P18" s="21">
-        <v>4628</v>
-      </c>
-      <c r="Q18" s="21">
-        <v>4708</v>
-      </c>
-      <c r="R18" s="23">
-        <v>4978</v>
-      </c>
-      <c r="S18" s="23">
-        <v>5070</v>
-      </c>
-      <c r="T18" s="23">
-        <v>5162</v>
-      </c>
-      <c r="U18" s="23">
-        <v>5254</v>
-      </c>
-      <c r="V18" s="23">
-        <v>5346</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B19" s="78"/>
-      <c r="C19" s="9">
-        <v>2200</v>
-      </c>
-      <c r="D19" s="20">
-        <v>3700</v>
-      </c>
-      <c r="E19" s="21">
-        <v>3792</v>
-      </c>
-      <c r="F19" s="21">
-        <v>3886</v>
-      </c>
-      <c r="G19" s="21">
-        <v>3979</v>
-      </c>
-      <c r="H19" s="21">
-        <v>4041</v>
-      </c>
-      <c r="I19" s="21">
-        <v>4135</v>
-      </c>
-      <c r="J19" s="21">
-        <v>4228</v>
-      </c>
-      <c r="K19" s="21">
-        <v>4321</v>
-      </c>
-      <c r="L19" s="21">
-        <v>4414</v>
-      </c>
-      <c r="M19" s="21">
-        <v>4502</v>
-      </c>
-      <c r="N19" s="21">
-        <v>4584</v>
-      </c>
-      <c r="O19" s="21">
-        <v>4667</v>
-      </c>
-      <c r="P19" s="21">
-        <v>4750</v>
-      </c>
-      <c r="Q19" s="21">
-        <v>4833</v>
-      </c>
-      <c r="R19" s="23">
-        <v>5115</v>
-      </c>
-      <c r="S19" s="23">
-        <v>5210</v>
-      </c>
-      <c r="T19" s="23">
-        <v>5306</v>
-      </c>
-      <c r="U19" s="23">
-        <v>5401</v>
-      </c>
-      <c r="V19" s="23">
-        <v>5497</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B20" s="78"/>
-      <c r="C20" s="9">
-        <v>2300</v>
-      </c>
-      <c r="D20" s="20">
-        <v>3862</v>
-      </c>
-      <c r="E20" s="21">
-        <v>3958</v>
-      </c>
-      <c r="F20" s="21">
-        <v>4056</v>
-      </c>
-      <c r="G20" s="21">
-        <v>4153</v>
-      </c>
-      <c r="H20" s="21">
-        <v>4219</v>
-      </c>
-      <c r="I20" s="21">
-        <v>4316</v>
-      </c>
-      <c r="J20" s="21">
-        <v>4413</v>
-      </c>
-      <c r="K20" s="21">
-        <v>4510</v>
-      </c>
-      <c r="L20" s="21">
-        <v>4608</v>
-      </c>
-      <c r="M20" s="21">
-        <v>4698</v>
-      </c>
-      <c r="N20" s="21">
-        <v>4784</v>
-      </c>
-      <c r="O20" s="21">
-        <v>4870</v>
-      </c>
-      <c r="P20" s="21">
-        <v>4955</v>
-      </c>
-      <c r="Q20" s="23">
-        <v>5232</v>
-      </c>
-      <c r="R20" s="23">
-        <v>5336</v>
-      </c>
-      <c r="S20" s="23">
-        <v>5434</v>
-      </c>
-      <c r="T20" s="23">
-        <v>5533</v>
-      </c>
-      <c r="U20" s="23">
-        <v>5632</v>
-      </c>
-      <c r="V20" s="23">
-        <v>5731</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B21" s="78"/>
-      <c r="C21" s="9">
-        <v>2400</v>
-      </c>
-      <c r="D21" s="20">
-        <v>3950</v>
-      </c>
-      <c r="E21" s="21">
-        <v>4050</v>
-      </c>
-      <c r="F21" s="21">
-        <v>4150</v>
-      </c>
-      <c r="G21" s="21">
-        <v>4250</v>
-      </c>
-      <c r="H21" s="21">
-        <v>4319</v>
-      </c>
-      <c r="I21" s="21">
-        <v>4420</v>
-      </c>
-      <c r="J21" s="21">
-        <v>4519</v>
-      </c>
-      <c r="K21" s="21">
-        <v>4620</v>
-      </c>
-      <c r="L21" s="21">
-        <v>4720</v>
-      </c>
-      <c r="M21" s="21">
-        <v>4813</v>
-      </c>
-      <c r="N21" s="21">
-        <v>4902</v>
-      </c>
-      <c r="O21" s="21">
-        <v>4990</v>
-      </c>
-      <c r="P21" s="23">
-        <v>5265</v>
-      </c>
-      <c r="Q21" s="23">
-        <v>5367</v>
-      </c>
-      <c r="R21" s="23">
-        <v>5475</v>
-      </c>
-      <c r="S21" s="23">
-        <v>5577</v>
-      </c>
-      <c r="T21" s="23">
-        <v>5679</v>
-      </c>
-      <c r="U21" s="23">
-        <v>5782</v>
-      </c>
-      <c r="V21" s="23">
-        <v>5884</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B22" s="78"/>
-      <c r="C22" s="9">
-        <v>2500</v>
-      </c>
-      <c r="D22" s="20">
-        <v>4068</v>
-      </c>
-      <c r="E22" s="21">
-        <v>4171</v>
-      </c>
-      <c r="F22" s="21">
-        <v>4274</v>
-      </c>
-      <c r="G22" s="21">
-        <v>4377</v>
-      </c>
-      <c r="H22" s="21">
-        <v>4445</v>
-      </c>
-      <c r="I22" s="21">
-        <v>4548</v>
-      </c>
-      <c r="J22" s="21">
-        <v>4651</v>
-      </c>
-      <c r="K22" s="21">
-        <v>4754</v>
-      </c>
-      <c r="L22" s="21">
-        <v>4857</v>
-      </c>
-      <c r="M22" s="21">
-        <v>4954</v>
-      </c>
-      <c r="N22" s="21">
-        <v>5045</v>
-      </c>
-      <c r="O22" s="21">
-        <v>5137</v>
-      </c>
-      <c r="P22" s="23">
-        <v>5422</v>
-      </c>
-      <c r="Q22" s="23">
-        <v>5528</v>
-      </c>
-      <c r="R22" s="23">
-        <v>5639</v>
-      </c>
-      <c r="S22" s="23">
-        <v>5773</v>
-      </c>
-      <c r="T22" s="23">
-        <v>5879</v>
-      </c>
-      <c r="U22" s="23">
-        <v>5985</v>
-      </c>
-      <c r="V22" s="23">
-        <v>6091</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B23" s="78"/>
-      <c r="C23" s="9">
-        <v>2600</v>
-      </c>
-      <c r="D23" s="48">
-        <v>4299</v>
-      </c>
-      <c r="E23" s="23">
-        <v>4419</v>
-      </c>
-      <c r="F23" s="23">
-        <v>4540</v>
-      </c>
-      <c r="G23" s="23">
-        <v>4661</v>
-      </c>
-      <c r="H23" s="23">
-        <v>4746</v>
-      </c>
-      <c r="I23" s="23">
-        <v>4867</v>
-      </c>
-      <c r="J23" s="23">
-        <v>4987</v>
-      </c>
-      <c r="K23" s="23">
-        <v>5108</v>
-      </c>
-      <c r="L23" s="23">
-        <v>5293</v>
-      </c>
-      <c r="M23" s="23">
-        <v>5407</v>
-      </c>
-      <c r="N23" s="23">
-        <v>5517</v>
-      </c>
-      <c r="O23" s="23">
-        <v>5654</v>
-      </c>
-      <c r="P23" s="23">
-        <v>5764</v>
-      </c>
-      <c r="Q23" s="23">
-        <v>5873</v>
-      </c>
-      <c r="R23" s="23">
-        <v>6160</v>
-      </c>
-      <c r="S23" s="23">
-        <v>6269</v>
-      </c>
-      <c r="T23" s="23">
-        <v>6379</v>
-      </c>
-      <c r="U23" s="23">
-        <v>6489</v>
-      </c>
-      <c r="V23" s="23">
-        <v>6598</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B24" s="78"/>
-      <c r="C24" s="9">
-        <v>2700</v>
-      </c>
-      <c r="D24" s="48">
-        <v>4393</v>
-      </c>
-      <c r="E24" s="23">
-        <v>4517</v>
-      </c>
-      <c r="F24" s="23">
-        <v>4641</v>
-      </c>
-      <c r="G24" s="23">
-        <v>4766</v>
-      </c>
-      <c r="H24" s="23">
-        <v>4854</v>
-      </c>
-      <c r="I24" s="23">
-        <v>4979</v>
-      </c>
-      <c r="J24" s="23">
-        <v>5103</v>
-      </c>
-      <c r="K24" s="23">
-        <v>5291</v>
-      </c>
-      <c r="L24" s="23">
-        <v>5444</v>
-      </c>
-      <c r="M24" s="23">
-        <v>5562</v>
-      </c>
-      <c r="N24" s="23">
-        <v>5854</v>
-      </c>
-      <c r="O24" s="23">
-        <v>5967</v>
-      </c>
-      <c r="P24" s="23">
-        <v>6080</v>
-      </c>
-      <c r="Q24" s="23">
-        <v>6193</v>
-      </c>
-      <c r="R24" s="23">
-        <v>6311</v>
-      </c>
-      <c r="S24" s="23">
-        <v>6424</v>
-      </c>
-      <c r="T24" s="23">
-        <v>6537</v>
-      </c>
-      <c r="U24" s="23">
-        <v>6650</v>
-      </c>
-      <c r="V24" s="23">
-        <v>6763</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B25" s="78"/>
-      <c r="C25" s="9">
-        <v>2800</v>
-      </c>
-      <c r="D25" s="24">
-        <v>4488</v>
-      </c>
-      <c r="E25" s="12">
-        <v>4615</v>
-      </c>
-      <c r="F25" s="12">
-        <v>4742</v>
-      </c>
-      <c r="G25" s="12">
-        <v>4871</v>
-      </c>
-      <c r="H25" s="12">
-        <v>4963</v>
-      </c>
-      <c r="I25" s="12">
-        <v>5090</v>
-      </c>
-      <c r="J25" s="12">
-        <v>5312</v>
-      </c>
-      <c r="K25" s="12">
-        <v>5440</v>
-      </c>
-      <c r="L25" s="12">
-        <v>5567</v>
-      </c>
-      <c r="M25" s="12">
-        <v>5875</v>
-      </c>
-      <c r="N25" s="12">
-        <v>5991</v>
-      </c>
-      <c r="O25" s="12">
-        <v>6108</v>
-      </c>
-      <c r="P25" s="12">
-        <v>6224</v>
-      </c>
-      <c r="Q25" s="12">
-        <v>6341</v>
-      </c>
-      <c r="R25" s="12">
-        <v>6462</v>
-      </c>
-      <c r="S25" s="12">
-        <v>6579</v>
-      </c>
-      <c r="T25" s="12">
-        <v>6695</v>
-      </c>
-      <c r="U25" s="12">
-        <v>6812</v>
-      </c>
-      <c r="V25" s="12">
-        <v>6928</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="B26" s="78"/>
-      <c r="C26" s="9">
-        <v>2900</v>
-      </c>
-      <c r="D26" s="24">
-        <v>4582</v>
-      </c>
-      <c r="E26" s="12">
-        <v>4713</v>
-      </c>
-      <c r="F26" s="12">
-        <v>4844</v>
-      </c>
-      <c r="G26" s="12">
-        <v>4975</v>
-      </c>
-      <c r="H26" s="12">
-        <v>5101</v>
-      </c>
-      <c r="I26" s="12">
-        <v>5233</v>
-      </c>
-      <c r="J26" s="12">
-        <v>5620</v>
-      </c>
-      <c r="K26" s="12">
-        <v>5751</v>
-      </c>
-      <c r="L26" s="12">
-        <v>5883</v>
-      </c>
-      <c r="M26" s="12">
-        <v>6008</v>
-      </c>
-      <c r="N26" s="12">
-        <v>6128</v>
-      </c>
-      <c r="O26" s="12">
-        <v>6248</v>
-      </c>
-      <c r="P26" s="12">
-        <v>6368</v>
-      </c>
-      <c r="Q26" s="12">
-        <v>6488</v>
-      </c>
-      <c r="R26" s="12">
-        <v>6613</v>
-      </c>
-      <c r="S26" s="12">
-        <v>6733</v>
-      </c>
-      <c r="T26" s="12">
-        <v>6853</v>
-      </c>
-      <c r="U26" s="12">
-        <v>6973</v>
-      </c>
-      <c r="V26" s="12">
-        <v>7093</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="79"/>
-      <c r="C27" s="4">
-        <v>3000</v>
-      </c>
-      <c r="D27" s="24">
-        <v>3703</v>
-      </c>
-      <c r="E27" s="12">
-        <v>4810</v>
-      </c>
-      <c r="F27" s="12">
-        <v>4945</v>
-      </c>
-      <c r="G27" s="12">
-        <v>5111</v>
-      </c>
-      <c r="H27" s="12">
-        <v>5210</v>
-      </c>
-      <c r="I27" s="12">
-        <v>5609</v>
-      </c>
-      <c r="J27" s="12">
-        <v>5743</v>
-      </c>
-      <c r="K27" s="12">
-        <v>5878</v>
-      </c>
-      <c r="L27" s="12">
-        <v>6013</v>
-      </c>
-      <c r="M27" s="12">
-        <v>6141</v>
-      </c>
-      <c r="N27" s="12">
-        <v>6265</v>
-      </c>
-      <c r="O27" s="12">
-        <v>6389</v>
-      </c>
-      <c r="P27" s="12">
-        <v>6512</v>
-      </c>
-      <c r="Q27" s="12">
-        <v>6636</v>
-      </c>
-      <c r="R27" s="12">
-        <v>6764</v>
-      </c>
-      <c r="S27" s="12">
-        <v>6888</v>
-      </c>
-      <c r="T27" s="12">
-        <v>7011</v>
-      </c>
-      <c r="U27" s="12">
-        <v>7135</v>
-      </c>
-      <c r="V27" s="12">
-        <v>7259</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="X28" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y28" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="X29" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y29" s="15">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" ht="30" x14ac:dyDescent="0.35">
-      <c r="A30" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="X30" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y30" s="15">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" ht="20" x14ac:dyDescent="0.35">
-      <c r="A31" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="15">
-        <v>242</v>
-      </c>
-      <c r="X31" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y31" s="15">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" ht="20" x14ac:dyDescent="0.35">
-      <c r="A32" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="15">
-        <v>573</v>
-      </c>
-      <c r="X32" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y32" s="15">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="15">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" s="15">
-        <v>119</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="D2:V2"/>
-    <mergeCell ref="B4:B27"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D253740-FE97-4FFB-B698-DA3D3419EA93}">
-  <dimension ref="A1:AD29"/>
+  <dimension ref="A1:AD30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="AD31" sqref="AD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10910,43 +10947,43 @@
   <sheetData>
     <row r="1" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="80"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="84" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="85"/>
-      <c r="U2" s="85"/>
-      <c r="V2" s="85"/>
-      <c r="W2" s="85"/>
-      <c r="X2" s="85"/>
-      <c r="Y2" s="85"/>
-      <c r="Z2" s="85"/>
-      <c r="AA2" s="85"/>
-      <c r="AB2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="86"/>
+      <c r="X2" s="86"/>
+      <c r="Y2" s="86"/>
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="86"/>
+      <c r="AB2" s="87"/>
     </row>
     <row r="3" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="82"/>
-      <c r="C3" s="83"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="84"/>
       <c r="D3" s="49">
         <v>600</v>
       </c>
@@ -11027,7 +11064,7 @@
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="88" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="52">
@@ -11110,7 +11147,7 @@
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="B5" s="88"/>
+      <c r="B5" s="89"/>
       <c r="C5" s="55">
         <v>800</v>
       </c>
@@ -11191,7 +11228,7 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="B6" s="88"/>
+      <c r="B6" s="89"/>
       <c r="C6" s="55">
         <v>900</v>
       </c>
@@ -11272,7 +11309,7 @@
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="B7" s="88"/>
+      <c r="B7" s="89"/>
       <c r="C7" s="55">
         <v>1000</v>
       </c>
@@ -11353,7 +11390,7 @@
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="B8" s="88"/>
+      <c r="B8" s="89"/>
       <c r="C8" s="55">
         <v>1100</v>
       </c>
@@ -11434,7 +11471,7 @@
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="B9" s="88"/>
+      <c r="B9" s="89"/>
       <c r="C9" s="55">
         <v>1200</v>
       </c>
@@ -11515,7 +11552,7 @@
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="B10" s="88"/>
+      <c r="B10" s="89"/>
       <c r="C10" s="55">
         <v>1300</v>
       </c>
@@ -11596,7 +11633,7 @@
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="B11" s="88"/>
+      <c r="B11" s="89"/>
       <c r="C11" s="55">
         <v>1400</v>
       </c>
@@ -11677,7 +11714,7 @@
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="B12" s="88"/>
+      <c r="B12" s="89"/>
       <c r="C12" s="55">
         <v>1500</v>
       </c>
@@ -11758,7 +11795,7 @@
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="B13" s="88"/>
+      <c r="B13" s="89"/>
       <c r="C13" s="55">
         <v>1600</v>
       </c>
@@ -11839,7 +11876,7 @@
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="B14" s="88"/>
+      <c r="B14" s="89"/>
       <c r="C14" s="55">
         <v>1700</v>
       </c>
@@ -11920,7 +11957,7 @@
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="B15" s="88"/>
+      <c r="B15" s="89"/>
       <c r="C15" s="55">
         <v>1800</v>
       </c>
@@ -12001,7 +12038,7 @@
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="B16" s="88"/>
+      <c r="B16" s="89"/>
       <c r="C16" s="55">
         <v>1900</v>
       </c>
@@ -12074,15 +12111,15 @@
       <c r="Z16" s="58">
         <v>2976</v>
       </c>
-      <c r="AA16" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB16" s="57" t="s">
-        <v>4</v>
+      <c r="AA16" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB16" s="61" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B17" s="88"/>
+      <c r="B17" s="89"/>
       <c r="C17" s="55">
         <v>2000</v>
       </c>
@@ -12152,18 +12189,18 @@
       <c r="Y17" s="58">
         <v>3004</v>
       </c>
-      <c r="Z17" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA17" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB17" s="57" t="s">
-        <v>4</v>
+      <c r="Z17" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA17" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB17" s="61" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B18" s="88"/>
+      <c r="B18" s="89"/>
       <c r="C18" s="55">
         <v>2100</v>
       </c>
@@ -12227,24 +12264,24 @@
       <c r="W18" s="58">
         <v>2987</v>
       </c>
-      <c r="X18" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y18" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z18" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA18" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB18" s="57" t="s">
-        <v>4</v>
+      <c r="X18" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y18" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z18" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA18" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB18" s="61" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B19" s="88"/>
+      <c r="B19" s="89"/>
       <c r="C19" s="55">
         <v>2200</v>
       </c>
@@ -12305,27 +12342,27 @@
       <c r="V19" s="58">
         <v>2998</v>
       </c>
-      <c r="W19" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="X19" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y19" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z19" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA19" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB19" s="57" t="s">
-        <v>4</v>
+      <c r="W19" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="X19" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y19" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z19" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA19" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB19" s="61" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B20" s="88"/>
+      <c r="B20" s="89"/>
       <c r="C20" s="55">
         <v>2300</v>
       </c>
@@ -12383,30 +12420,30 @@
       <c r="U20" s="58">
         <v>3002</v>
       </c>
-      <c r="V20" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="W20" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="X20" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y20" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z20" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA20" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB20" s="57" t="s">
-        <v>4</v>
+      <c r="V20" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="W20" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="X20" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y20" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z20" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA20" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB20" s="61" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B21" s="88"/>
+      <c r="B21" s="89"/>
       <c r="C21" s="55">
         <v>2400</v>
       </c>
@@ -12461,33 +12498,33 @@
       <c r="T21" s="58">
         <v>2998</v>
       </c>
-      <c r="U21" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="V21" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="W21" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="X21" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y21" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z21" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA21" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB21" s="57" t="s">
-        <v>4</v>
+      <c r="U21" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="V21" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="W21" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="X21" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y21" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z21" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA21" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB21" s="61" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B22" s="88"/>
+      <c r="B22" s="89"/>
       <c r="C22" s="55">
         <v>2500</v>
       </c>
@@ -12539,36 +12576,36 @@
       <c r="S22" s="58">
         <v>2987</v>
       </c>
-      <c r="T22" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="U22" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="V22" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="W22" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="X22" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y22" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z22" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA22" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB22" s="57" t="s">
-        <v>4</v>
+      <c r="T22" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="U22" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="V22" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="W22" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="X22" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y22" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z22" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA22" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB22" s="61" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B23" s="88"/>
+      <c r="B23" s="89"/>
       <c r="C23" s="55">
         <v>2600</v>
       </c>
@@ -12617,39 +12654,39 @@
       <c r="R23" s="58">
         <v>2965</v>
       </c>
-      <c r="S23" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="T23" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="U23" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="V23" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="W23" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="X23" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y23" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z23" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA23" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB23" s="57" t="s">
-        <v>4</v>
+      <c r="S23" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="T23" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="U23" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="V23" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="W23" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="X23" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y23" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z23" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA23" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB23" s="61" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B24" s="88"/>
+      <c r="B24" s="89"/>
       <c r="C24" s="55">
         <v>2700</v>
       </c>
@@ -12698,39 +12735,39 @@
       <c r="R24" s="58">
         <v>3053</v>
       </c>
-      <c r="S24" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="T24" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="U24" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="V24" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="W24" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="X24" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y24" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z24" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA24" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB24" s="57" t="s">
-        <v>4</v>
+      <c r="S24" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="T24" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="U24" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="V24" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="W24" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="X24" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y24" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z24" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA24" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB24" s="61" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B25" s="88"/>
+      <c r="B25" s="89"/>
       <c r="C25" s="55">
         <v>2800</v>
       </c>
@@ -12776,42 +12813,42 @@
       <c r="Q25" s="58">
         <v>3025</v>
       </c>
-      <c r="R25" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="S25" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="T25" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="U25" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="V25" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="W25" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="X25" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y25" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z25" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA25" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB25" s="57" t="s">
-        <v>4</v>
+      <c r="R25" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="S25" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="T25" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="U25" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="V25" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="W25" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="X25" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y25" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z25" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA25" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB25" s="61" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B26" s="88"/>
+      <c r="B26" s="89"/>
       <c r="C26" s="55">
         <v>2900</v>
       </c>
@@ -12854,45 +12891,45 @@
       <c r="P26" s="58">
         <v>2989</v>
       </c>
-      <c r="Q26" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="R26" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="S26" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="T26" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="U26" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="V26" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="W26" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="X26" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y26" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z26" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA26" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB26" s="57" t="s">
-        <v>4</v>
+      <c r="Q26" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="R26" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="S26" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="T26" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="U26" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="V26" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="W26" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="X26" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y26" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z26" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA26" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB26" s="61" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B27" s="88"/>
+      <c r="B27" s="89"/>
       <c r="C27" s="55">
         <v>3000</v>
       </c>
@@ -12935,45 +12972,45 @@
       <c r="P27" s="58">
         <v>3071</v>
       </c>
-      <c r="Q27" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="R27" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="S27" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="T27" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="U27" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="V27" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="W27" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="X27" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y27" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z27" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA27" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB27" s="57" t="s">
-        <v>4</v>
+      <c r="Q27" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="R27" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="S27" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="T27" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="U27" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="V27" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="W27" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="X27" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y27" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z27" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA27" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB27" s="61" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.35">
-      <c r="B28" s="88"/>
+      <c r="B28" s="89"/>
       <c r="C28" s="55">
         <v>3100</v>
       </c>
@@ -13013,48 +13050,48 @@
       <c r="O28" s="58">
         <v>3025</v>
       </c>
-      <c r="P28" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q28" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="R28" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="S28" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="T28" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="U28" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="V28" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="W28" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="X28" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y28" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z28" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA28" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB28" s="57" t="s">
-        <v>4</v>
+      <c r="P28" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q28" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="R28" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="S28" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="T28" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="U28" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="V28" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="W28" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="X28" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y28" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z28" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA28" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB28" s="61" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="89"/>
+      <c r="B29" s="90"/>
       <c r="C29" s="51">
         <v>3200</v>
       </c>
@@ -13091,47 +13128,52 @@
       <c r="N29" s="58">
         <v>2972</v>
       </c>
-      <c r="O29" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="P29" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q29" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="R29" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="S29" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="T29" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="U29" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="V29" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="W29" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="X29" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y29" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z29" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA29" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB29" s="57" t="s">
-        <v>4</v>
+      <c r="O29" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="P29" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q29" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="R29" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="S29" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="T29" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="U29" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="V29" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="W29" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="X29" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y29" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z29" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA29" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB29" s="61" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="E30" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
